--- a/Code/Results/Cases/Case_2_32/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_32/res_bus/vm_pu.xlsx
@@ -418,19 +418,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9654410197618079</v>
+        <v>0.9654410197618076</v>
       </c>
       <c r="D2">
-        <v>0.9909014585660286</v>
+        <v>0.9909014585660285</v>
       </c>
       <c r="E2">
-        <v>0.9376182964446079</v>
+        <v>0.9376182964446077</v>
       </c>
       <c r="F2">
-        <v>0.9416012858938173</v>
+        <v>0.9416012858938168</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -445,10 +445,10 @@
         <v>1.002489022954178</v>
       </c>
       <c r="L2">
-        <v>0.9500210090233845</v>
+        <v>0.9500210090233842</v>
       </c>
       <c r="M2">
-        <v>0.9539389684861873</v>
+        <v>0.9539389684861869</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9772508810083799</v>
+        <v>0.9772508810083773</v>
       </c>
       <c r="D3">
-        <v>1.000034933129512</v>
+        <v>1.00003493312951</v>
       </c>
       <c r="E3">
-        <v>0.9487493581892628</v>
+        <v>0.9487493581892616</v>
       </c>
       <c r="F3">
-        <v>0.9555075685685799</v>
+        <v>0.9555075685685777</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036027791867588</v>
+        <v>1.036027791867587</v>
       </c>
       <c r="J3">
-        <v>0.9983815250475216</v>
+        <v>0.9983815250475195</v>
       </c>
       <c r="K3">
-        <v>1.010667366999196</v>
+        <v>1.010667366999194</v>
       </c>
       <c r="L3">
-        <v>0.9600829035497757</v>
+        <v>0.9600829035497743</v>
       </c>
       <c r="M3">
-        <v>0.9667432745286747</v>
+        <v>0.9667432745286726</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9844920965765904</v>
+        <v>0.9844920965765899</v>
       </c>
       <c r="D4">
         <v>1.005638336153458</v>
       </c>
       <c r="E4">
-        <v>0.9555094920821314</v>
+        <v>0.9555094920821311</v>
       </c>
       <c r="F4">
-        <v>0.9639773909010165</v>
+        <v>0.9639773909010154</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -518,13 +518,13 @@
         <v>1.004300990711304</v>
       </c>
       <c r="K4">
-        <v>1.01566918442909</v>
+        <v>1.015669184429089</v>
       </c>
       <c r="L4">
-        <v>0.9661762900866558</v>
+        <v>0.9661762900866555</v>
       </c>
       <c r="M4">
-        <v>0.9745309405476572</v>
+        <v>0.9745309405476563</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9874502168729415</v>
+        <v>0.987450216872943</v>
       </c>
       <c r="D5">
-        <v>1.007927906034176</v>
+        <v>1.007927906034177</v>
       </c>
       <c r="E5">
-        <v>0.9582569984078012</v>
+        <v>0.9582569984078018</v>
       </c>
       <c r="F5">
-        <v>0.9674255440240925</v>
+        <v>0.967425544024094</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.039556179967183</v>
       </c>
       <c r="J5">
-        <v>1.006716210850155</v>
+        <v>1.006716210850157</v>
       </c>
       <c r="K5">
-        <v>1.017709356617103</v>
+        <v>1.017709356617104</v>
       </c>
       <c r="L5">
-        <v>0.9686487559132738</v>
+        <v>0.9686487559132745</v>
       </c>
       <c r="M5">
-        <v>0.9776987564341124</v>
+        <v>0.9776987564341139</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9879421036910274</v>
+        <v>0.9879421036910266</v>
       </c>
       <c r="D6">
         <v>1.008308647348832</v>
       </c>
       <c r="E6">
-        <v>0.9587130721833622</v>
+        <v>0.9587130721833625</v>
       </c>
       <c r="F6">
-        <v>0.967998261844679</v>
+        <v>0.9679982618446789</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039725452629891</v>
+        <v>1.03972545262989</v>
       </c>
       <c r="J6">
         <v>1.007117649863632</v>
       </c>
       <c r="K6">
-        <v>1.018048417500356</v>
+        <v>1.018048417500355</v>
       </c>
       <c r="L6">
-        <v>0.969058938515322</v>
+        <v>0.9690589385153222</v>
       </c>
       <c r="M6">
-        <v>0.9782247576671113</v>
+        <v>0.978224757667111</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9845319496956785</v>
+        <v>0.9845319496956771</v>
       </c>
       <c r="D7">
-        <v>1.005669180531909</v>
+        <v>1.005669180531908</v>
       </c>
       <c r="E7">
-        <v>0.9555465619595807</v>
+        <v>0.9555465619595803</v>
       </c>
       <c r="F7">
-        <v>0.9640238910416591</v>
+        <v>0.9640238910416578</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038550169671648</v>
+        <v>1.038550169671647</v>
       </c>
       <c r="J7">
-        <v>1.004333541306261</v>
+        <v>1.00433354130626</v>
       </c>
       <c r="K7">
-        <v>1.015696683072502</v>
+        <v>1.015696683072501</v>
       </c>
       <c r="L7">
-        <v>0.9662096650728074</v>
+        <v>0.9662096650728068</v>
       </c>
       <c r="M7">
-        <v>0.9745736706272289</v>
+        <v>0.9745736706272278</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9695216496754121</v>
+        <v>0.9695216496754099</v>
       </c>
       <c r="D8">
-        <v>0.9940564626163025</v>
+        <v>0.9940564626163007</v>
       </c>
       <c r="E8">
-        <v>0.9414793256613494</v>
+        <v>0.9414793256613474</v>
       </c>
       <c r="F8">
-        <v>0.946419698032096</v>
+        <v>0.9464196980320935</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033332432780357</v>
+        <v>1.033332432780356</v>
       </c>
       <c r="J8">
-        <v>0.992052482878965</v>
+        <v>0.9920524828789627</v>
       </c>
       <c r="K8">
-        <v>1.005317549374926</v>
+        <v>1.005317549374924</v>
       </c>
       <c r="L8">
-        <v>0.9535150221691634</v>
+        <v>0.9535150221691616</v>
       </c>
       <c r="M8">
-        <v>0.9583779274058019</v>
+        <v>0.9583779274057994</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9394389607414053</v>
+        <v>0.9394389607414055</v>
       </c>
       <c r="D9">
-        <v>0.9708258693150186</v>
+        <v>0.9708258693150188</v>
       </c>
       <c r="E9">
-        <v>0.9126321276733745</v>
+        <v>0.9126321276733749</v>
       </c>
       <c r="F9">
-        <v>0.9105345711626551</v>
+        <v>0.9105345711626557</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.022701658969397</v>
       </c>
       <c r="J9">
-        <v>0.967327764522307</v>
+        <v>0.9673277645223074</v>
       </c>
       <c r="K9">
-        <v>0.9844107019651193</v>
+        <v>0.9844107019651194</v>
       </c>
       <c r="L9">
-        <v>0.9273218501869476</v>
+        <v>0.927321850186948</v>
       </c>
       <c r="M9">
-        <v>0.92526760232425</v>
+        <v>0.9252676023242504</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9158446272564132</v>
+        <v>0.9158446272564138</v>
       </c>
       <c r="D10">
-        <v>0.9526641720898174</v>
+        <v>0.9526641720898178</v>
       </c>
       <c r="E10">
-        <v>0.8893409139276994</v>
+        <v>0.8893409139277003</v>
       </c>
       <c r="F10">
-        <v>0.8817198992574548</v>
+        <v>0.8817198992574558</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.014247580178826</v>
       </c>
       <c r="J10">
-        <v>0.9478465079378615</v>
+        <v>0.947846507937862</v>
       </c>
       <c r="K10">
-        <v>0.9679441287873611</v>
+        <v>0.9679441287873617</v>
       </c>
       <c r="L10">
-        <v>0.906043703706474</v>
+        <v>0.9060437037064751</v>
       </c>
       <c r="M10">
-        <v>0.8986125522117875</v>
+        <v>0.8986125522117886</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.904392186590077</v>
+        <v>0.9043921865900733</v>
       </c>
       <c r="D11">
-        <v>0.9438716691234381</v>
+        <v>0.9438716691234355</v>
       </c>
       <c r="E11">
-        <v>0.8777975084582172</v>
+        <v>0.8777975084582134</v>
       </c>
       <c r="F11">
-        <v>0.8674797792865108</v>
+        <v>0.8674797792865059</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.010117703662526</v>
+        <v>1.010117703662524</v>
       </c>
       <c r="J11">
-        <v>0.9383643562991111</v>
+        <v>0.9383643562991074</v>
       </c>
       <c r="K11">
-        <v>0.9599358303612316</v>
+        <v>0.9599358303612288</v>
       </c>
       <c r="L11">
-        <v>0.8954614086352241</v>
+        <v>0.8954614086352203</v>
       </c>
       <c r="M11">
-        <v>0.8854235312065574</v>
+        <v>0.8854235312065527</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.899898668822711</v>
+        <v>0.8998986688227097</v>
       </c>
       <c r="D12">
-        <v>0.9404263187362483</v>
+        <v>0.9404263187362473</v>
       </c>
       <c r="E12">
-        <v>0.8732216712545322</v>
+        <v>0.8732216712545313</v>
       </c>
       <c r="F12">
-        <v>0.8618414402983291</v>
+        <v>0.8618414402983281</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.008493474652959</v>
+        <v>1.008493474652958</v>
       </c>
       <c r="J12">
-        <v>0.9346392519682557</v>
+        <v>0.9346392519682545</v>
       </c>
       <c r="K12">
-        <v>0.956791349678026</v>
+        <v>0.9567913496780251</v>
       </c>
       <c r="L12">
-        <v>0.8912603973358038</v>
+        <v>0.891260397335803</v>
       </c>
       <c r="M12">
-        <v>0.8801990231825356</v>
+        <v>0.8801990231825347</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9008745412729704</v>
+        <v>0.900874541272969</v>
       </c>
       <c r="D13">
-        <v>0.9411743348346576</v>
+        <v>0.9411743348346568</v>
       </c>
       <c r="E13">
-        <v>0.8742177443185627</v>
+        <v>0.8742177443185624</v>
       </c>
       <c r="F13">
-        <v>0.8630685019785604</v>
+        <v>0.8630685019785598</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.008846382822567</v>
       </c>
       <c r="J13">
-        <v>0.9354484705629817</v>
+        <v>0.9354484705629807</v>
       </c>
       <c r="K13">
-        <v>0.9574743518042356</v>
+        <v>0.9574743518042347</v>
       </c>
       <c r="L13">
-        <v>0.8921751669127409</v>
+        <v>0.8921751669127406</v>
       </c>
       <c r="M13">
-        <v>0.8813361265554041</v>
+        <v>0.8813361265554034</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9040260437917853</v>
+        <v>0.9040260437917835</v>
       </c>
       <c r="D14">
-        <v>0.9435908362754358</v>
+        <v>0.9435908362754346</v>
       </c>
       <c r="E14">
-        <v>0.877425672014532</v>
+        <v>0.877425672014531</v>
       </c>
       <c r="F14">
-        <v>0.867021471078957</v>
+        <v>0.8670214710789556</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.009985433096419</v>
+        <v>1.009985433096418</v>
       </c>
       <c r="J14">
-        <v>0.9380609245366993</v>
+        <v>0.9380609245366979</v>
       </c>
       <c r="K14">
-        <v>0.9596796569938506</v>
+        <v>0.9596796569938494</v>
       </c>
       <c r="L14">
-        <v>0.8951201583516094</v>
+        <v>0.8951201583516085</v>
       </c>
       <c r="M14">
-        <v>0.8849989070641158</v>
+        <v>0.8849989070641144</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9059339940723846</v>
+        <v>0.9059339940723852</v>
       </c>
       <c r="D15">
-        <v>0.945054428224942</v>
+        <v>0.9450544282249427</v>
       </c>
       <c r="E15">
-        <v>0.879361349587728</v>
+        <v>0.8793613495877272</v>
       </c>
       <c r="F15">
-        <v>0.8694075574309413</v>
+        <v>0.8694075574309406</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.010674536013274</v>
       </c>
       <c r="J15">
-        <v>0.9396418994691994</v>
+        <v>0.9396418994691998</v>
       </c>
       <c r="K15">
-        <v>0.9610144697273787</v>
+        <v>0.9610144697273791</v>
       </c>
       <c r="L15">
-        <v>0.8968963630053809</v>
+        <v>0.8968963630053801</v>
       </c>
       <c r="M15">
-        <v>0.8872095314140469</v>
+        <v>0.8872095314140463</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,7 +953,7 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9165745866632078</v>
+        <v>0.9165745866632075</v>
       </c>
       <c r="D16">
         <v>0.9532251310823726</v>
@@ -962,7 +962,7 @@
         <v>0.8900711236222162</v>
       </c>
       <c r="F16">
-        <v>0.8826215314578633</v>
+        <v>0.8826215314578632</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,13 +971,13 @@
         <v>1.014510295122622</v>
       </c>
       <c r="J16">
-        <v>0.9484503097375123</v>
+        <v>0.9484503097375122</v>
       </c>
       <c r="K16">
-        <v>0.9684542557093436</v>
+        <v>0.9684542557093435</v>
       </c>
       <c r="L16">
-        <v>0.9067123409501531</v>
+        <v>0.9067123409501532</v>
       </c>
       <c r="M16">
         <v>0.8994473163378858</v>
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9228871700218108</v>
+        <v>0.9228871700218102</v>
       </c>
       <c r="D17">
-        <v>0.95807880446433</v>
+        <v>0.9580788044643294</v>
       </c>
       <c r="E17">
-        <v>0.8963593267435621</v>
+        <v>0.8963593267435618</v>
       </c>
       <c r="F17">
-        <v>0.8903903294649043</v>
+        <v>0.8903903294649037</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.016779376773722</v>
+        <v>1.016779376773721</v>
       </c>
       <c r="J17">
-        <v>0.9536690229699082</v>
+        <v>0.9536690229699076</v>
       </c>
       <c r="K17">
-        <v>0.9728640813098066</v>
+        <v>0.9728640813098061</v>
       </c>
       <c r="L17">
-        <v>0.9124663426796578</v>
+        <v>0.9124663426796574</v>
       </c>
       <c r="M17">
-        <v>0.9066382216355272</v>
+        <v>0.9066382216355268</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9264544977567262</v>
+        <v>0.9264544977567239</v>
       </c>
       <c r="D18">
-        <v>0.960823672181971</v>
+        <v>0.960823672181969</v>
       </c>
       <c r="E18">
-        <v>0.8998923184059268</v>
+        <v>0.899892318405923</v>
       </c>
       <c r="F18">
-        <v>0.8947587737309096</v>
+        <v>0.8947587737309055</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.01805928901344</v>
+        <v>1.018059289013439</v>
       </c>
       <c r="J18">
-        <v>0.9566158972788233</v>
+        <v>0.9566158972788211</v>
       </c>
       <c r="K18">
-        <v>0.9753547339505327</v>
+        <v>0.9753547339505307</v>
       </c>
       <c r="L18">
-        <v>0.9156959998704894</v>
+        <v>0.9156959998704858</v>
       </c>
       <c r="M18">
-        <v>0.9106802689557197</v>
+        <v>0.9106802689557156</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9276526822802861</v>
+        <v>0.9276526822802842</v>
       </c>
       <c r="D19">
-        <v>0.9617459236203111</v>
+        <v>0.9617459236203096</v>
       </c>
       <c r="E19">
-        <v>0.9010757171278504</v>
+        <v>0.9010757171278495</v>
       </c>
       <c r="F19">
-        <v>0.896222614298562</v>
+        <v>0.8962226142985604</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.018488775211706</v>
       </c>
       <c r="J19">
-        <v>0.9576053114705713</v>
+        <v>0.9576053114705695</v>
       </c>
       <c r="K19">
-        <v>0.9761910482051318</v>
+        <v>0.9761910482051303</v>
       </c>
       <c r="L19">
-        <v>0.9167772673859257</v>
+        <v>0.9167772673859247</v>
       </c>
       <c r="M19">
-        <v>0.9120344893683693</v>
+        <v>0.9120344893683677</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,13 +1105,13 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9222220674476499</v>
+        <v>0.92222206744765</v>
       </c>
       <c r="D20">
-        <v>0.9575672001550443</v>
+        <v>0.9575672001550444</v>
       </c>
       <c r="E20">
-        <v>0.8956990039014773</v>
+        <v>0.8956990039014767</v>
       </c>
       <c r="F20">
         <v>0.8895741513422259</v>
@@ -1123,13 +1123,13 @@
         <v>1.01654055101806</v>
       </c>
       <c r="J20">
-        <v>0.9531194157929037</v>
+        <v>0.9531194157929039</v>
       </c>
       <c r="K20">
-        <v>0.9723996021171005</v>
+        <v>0.972399602117101</v>
       </c>
       <c r="L20">
-        <v>0.9118624552745446</v>
+        <v>0.9118624552745441</v>
       </c>
       <c r="M20">
         <v>0.9058829071405695</v>
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.903105182224758</v>
+        <v>0.9031051822247577</v>
       </c>
       <c r="D21">
-        <v>0.9428846079634526</v>
+        <v>0.9428846079634521</v>
       </c>
       <c r="E21">
-        <v>0.876489702448173</v>
+        <v>0.8764897024481725</v>
       </c>
       <c r="F21">
-        <v>0.8658679432045723</v>
+        <v>0.8658679432045716</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.009652707861961</v>
+        <v>1.00965270786196</v>
       </c>
       <c r="J21">
-        <v>0.9372977060401799</v>
+        <v>0.9372977060401794</v>
       </c>
       <c r="K21">
-        <v>0.959035335298331</v>
+        <v>0.9590353352983304</v>
       </c>
       <c r="L21">
-        <v>0.8942610783987539</v>
+        <v>0.8942610783987534</v>
       </c>
       <c r="M21">
-        <v>0.8839301226076559</v>
+        <v>0.8839301226076552</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1184,10 +1184,10 @@
         <v>0.8896495614173915</v>
       </c>
       <c r="D22">
-        <v>0.9325779186985744</v>
+        <v>0.9325779186985743</v>
       </c>
       <c r="E22">
-        <v>0.8626792312036677</v>
+        <v>0.8626792312036679</v>
       </c>
       <c r="F22">
         <v>0.8488639117593776</v>
@@ -1202,10 +1202,10 @@
         <v>0.9261327611366491</v>
       </c>
       <c r="K22">
-        <v>0.9496147747350532</v>
+        <v>0.9496147747350533</v>
       </c>
       <c r="L22">
-        <v>0.8815688870517214</v>
+        <v>0.8815688870517213</v>
       </c>
       <c r="M22">
         <v>0.8681697354530118</v>
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8969447015752643</v>
+        <v>0.8969447015752634</v>
       </c>
       <c r="D23">
-        <v>0.938162834898479</v>
+        <v>0.9381628348984782</v>
       </c>
       <c r="E23">
-        <v>0.8701985373749821</v>
+        <v>0.8701985373749819</v>
       </c>
       <c r="F23">
-        <v>0.858118234692071</v>
+        <v>0.8581182346920703</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.007424672018533</v>
       </c>
       <c r="J23">
-        <v>0.9321889795340885</v>
+        <v>0.9321889795340877</v>
       </c>
       <c r="K23">
-        <v>0.9547235566355261</v>
+        <v>0.9547235566355255</v>
       </c>
       <c r="L23">
-        <v>0.8884830530319439</v>
+        <v>0.8884830530319437</v>
       </c>
       <c r="M23">
-        <v>0.8767484397283295</v>
+        <v>0.8767484397283288</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9225229493943962</v>
+        <v>0.9225229493943945</v>
       </c>
       <c r="D24">
-        <v>0.9577986357402078</v>
+        <v>0.9577986357402066</v>
       </c>
       <c r="E24">
-        <v>0.8959977872426196</v>
+        <v>0.8959977872426179</v>
       </c>
       <c r="F24">
-        <v>0.8899434449492479</v>
+        <v>0.889943444949246</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.016648599487475</v>
       </c>
       <c r="J24">
-        <v>0.9533680565698038</v>
+        <v>0.9533680565698023</v>
       </c>
       <c r="K24">
-        <v>0.9726097295889695</v>
+        <v>0.972609729588968</v>
       </c>
       <c r="L24">
-        <v>0.9121357126581014</v>
+        <v>0.9121357126581</v>
       </c>
       <c r="M24">
-        <v>0.9062246665046472</v>
+        <v>0.9062246665046449</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9477396166856473</v>
+        <v>0.9477396166856457</v>
       </c>
       <c r="D25">
-        <v>0.9772286006368311</v>
+        <v>0.9772286006368296</v>
       </c>
       <c r="E25">
-        <v>0.9206823131252538</v>
+        <v>0.9206823131252531</v>
       </c>
       <c r="F25">
-        <v>0.9205239746775953</v>
+        <v>0.9205239746775941</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.025654237213175</v>
+        <v>1.025654237213174</v>
       </c>
       <c r="J25">
-        <v>0.9741634966759505</v>
+        <v>0.9741634966759488</v>
       </c>
       <c r="K25">
-        <v>0.9901910077257609</v>
+        <v>0.9901910077257594</v>
       </c>
       <c r="L25">
-        <v>0.9346508353610867</v>
+        <v>0.934650835361086</v>
       </c>
       <c r="M25">
-        <v>0.9344955414759848</v>
+        <v>0.9344955414759833</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_32/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_32/res_bus/vm_pu.xlsx
@@ -418,19 +418,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C2">
-        <v>0.9654410197618076</v>
+        <v>0.9654410197618079</v>
       </c>
       <c r="D2">
-        <v>0.9909014585660285</v>
+        <v>0.9909014585660286</v>
       </c>
       <c r="E2">
-        <v>0.9376182964446077</v>
+        <v>0.9376182964446079</v>
       </c>
       <c r="F2">
-        <v>0.9416012858938168</v>
+        <v>0.9416012858938173</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -445,10 +445,10 @@
         <v>1.002489022954178</v>
       </c>
       <c r="L2">
-        <v>0.9500210090233842</v>
+        <v>0.9500210090233845</v>
       </c>
       <c r="M2">
-        <v>0.9539389684861869</v>
+        <v>0.9539389684861873</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9772508810083773</v>
+        <v>0.9772508810083799</v>
       </c>
       <c r="D3">
-        <v>1.00003493312951</v>
+        <v>1.000034933129512</v>
       </c>
       <c r="E3">
-        <v>0.9487493581892616</v>
+        <v>0.9487493581892628</v>
       </c>
       <c r="F3">
-        <v>0.9555075685685777</v>
+        <v>0.9555075685685799</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036027791867587</v>
+        <v>1.036027791867588</v>
       </c>
       <c r="J3">
-        <v>0.9983815250475195</v>
+        <v>0.9983815250475216</v>
       </c>
       <c r="K3">
-        <v>1.010667366999194</v>
+        <v>1.010667366999196</v>
       </c>
       <c r="L3">
-        <v>0.9600829035497743</v>
+        <v>0.9600829035497757</v>
       </c>
       <c r="M3">
-        <v>0.9667432745286726</v>
+        <v>0.9667432745286747</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9844920965765899</v>
+        <v>0.9844920965765904</v>
       </c>
       <c r="D4">
         <v>1.005638336153458</v>
       </c>
       <c r="E4">
-        <v>0.9555094920821311</v>
+        <v>0.9555094920821314</v>
       </c>
       <c r="F4">
-        <v>0.9639773909010154</v>
+        <v>0.9639773909010165</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -518,13 +518,13 @@
         <v>1.004300990711304</v>
       </c>
       <c r="K4">
-        <v>1.015669184429089</v>
+        <v>1.01566918442909</v>
       </c>
       <c r="L4">
-        <v>0.9661762900866555</v>
+        <v>0.9661762900866558</v>
       </c>
       <c r="M4">
-        <v>0.9745309405476563</v>
+        <v>0.9745309405476572</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.987450216872943</v>
+        <v>0.9874502168729415</v>
       </c>
       <c r="D5">
-        <v>1.007927906034177</v>
+        <v>1.007927906034176</v>
       </c>
       <c r="E5">
-        <v>0.9582569984078018</v>
+        <v>0.9582569984078012</v>
       </c>
       <c r="F5">
-        <v>0.967425544024094</v>
+        <v>0.9674255440240925</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.039556179967183</v>
       </c>
       <c r="J5">
-        <v>1.006716210850157</v>
+        <v>1.006716210850155</v>
       </c>
       <c r="K5">
-        <v>1.017709356617104</v>
+        <v>1.017709356617103</v>
       </c>
       <c r="L5">
-        <v>0.9686487559132745</v>
+        <v>0.9686487559132738</v>
       </c>
       <c r="M5">
-        <v>0.9776987564341139</v>
+        <v>0.9776987564341124</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9879421036910266</v>
+        <v>0.9879421036910274</v>
       </c>
       <c r="D6">
         <v>1.008308647348832</v>
       </c>
       <c r="E6">
-        <v>0.9587130721833625</v>
+        <v>0.9587130721833622</v>
       </c>
       <c r="F6">
-        <v>0.9679982618446789</v>
+        <v>0.967998261844679</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.03972545262989</v>
+        <v>1.039725452629891</v>
       </c>
       <c r="J6">
         <v>1.007117649863632</v>
       </c>
       <c r="K6">
-        <v>1.018048417500355</v>
+        <v>1.018048417500356</v>
       </c>
       <c r="L6">
-        <v>0.9690589385153222</v>
+        <v>0.969058938515322</v>
       </c>
       <c r="M6">
-        <v>0.978224757667111</v>
+        <v>0.9782247576671113</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9845319496956771</v>
+        <v>0.9845319496956785</v>
       </c>
       <c r="D7">
-        <v>1.005669180531908</v>
+        <v>1.005669180531909</v>
       </c>
       <c r="E7">
-        <v>0.9555465619595803</v>
+        <v>0.9555465619595807</v>
       </c>
       <c r="F7">
-        <v>0.9640238910416578</v>
+        <v>0.9640238910416591</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038550169671647</v>
+        <v>1.038550169671648</v>
       </c>
       <c r="J7">
-        <v>1.00433354130626</v>
+        <v>1.004333541306261</v>
       </c>
       <c r="K7">
-        <v>1.015696683072501</v>
+        <v>1.015696683072502</v>
       </c>
       <c r="L7">
-        <v>0.9662096650728068</v>
+        <v>0.9662096650728074</v>
       </c>
       <c r="M7">
-        <v>0.9745736706272278</v>
+        <v>0.9745736706272289</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9695216496754099</v>
+        <v>0.9695216496754121</v>
       </c>
       <c r="D8">
-        <v>0.9940564626163007</v>
+        <v>0.9940564626163025</v>
       </c>
       <c r="E8">
-        <v>0.9414793256613474</v>
+        <v>0.9414793256613494</v>
       </c>
       <c r="F8">
-        <v>0.9464196980320935</v>
+        <v>0.946419698032096</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033332432780356</v>
+        <v>1.033332432780357</v>
       </c>
       <c r="J8">
-        <v>0.9920524828789627</v>
+        <v>0.992052482878965</v>
       </c>
       <c r="K8">
-        <v>1.005317549374924</v>
+        <v>1.005317549374926</v>
       </c>
       <c r="L8">
-        <v>0.9535150221691616</v>
+        <v>0.9535150221691634</v>
       </c>
       <c r="M8">
-        <v>0.9583779274057994</v>
+        <v>0.9583779274058019</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9394389607414055</v>
+        <v>0.9394389607414053</v>
       </c>
       <c r="D9">
-        <v>0.9708258693150188</v>
+        <v>0.9708258693150186</v>
       </c>
       <c r="E9">
-        <v>0.9126321276733749</v>
+        <v>0.9126321276733745</v>
       </c>
       <c r="F9">
-        <v>0.9105345711626557</v>
+        <v>0.9105345711626551</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.022701658969397</v>
       </c>
       <c r="J9">
-        <v>0.9673277645223074</v>
+        <v>0.967327764522307</v>
       </c>
       <c r="K9">
-        <v>0.9844107019651194</v>
+        <v>0.9844107019651193</v>
       </c>
       <c r="L9">
-        <v>0.927321850186948</v>
+        <v>0.9273218501869476</v>
       </c>
       <c r="M9">
-        <v>0.9252676023242504</v>
+        <v>0.92526760232425</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9158446272564138</v>
+        <v>0.9158446272564132</v>
       </c>
       <c r="D10">
-        <v>0.9526641720898178</v>
+        <v>0.9526641720898174</v>
       </c>
       <c r="E10">
-        <v>0.8893409139277003</v>
+        <v>0.8893409139276994</v>
       </c>
       <c r="F10">
-        <v>0.8817198992574558</v>
+        <v>0.8817198992574548</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.014247580178826</v>
       </c>
       <c r="J10">
-        <v>0.947846507937862</v>
+        <v>0.9478465079378615</v>
       </c>
       <c r="K10">
-        <v>0.9679441287873617</v>
+        <v>0.9679441287873611</v>
       </c>
       <c r="L10">
-        <v>0.9060437037064751</v>
+        <v>0.906043703706474</v>
       </c>
       <c r="M10">
-        <v>0.8986125522117886</v>
+        <v>0.8986125522117875</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9043921865900733</v>
+        <v>0.904392186590077</v>
       </c>
       <c r="D11">
-        <v>0.9438716691234355</v>
+        <v>0.9438716691234381</v>
       </c>
       <c r="E11">
-        <v>0.8777975084582134</v>
+        <v>0.8777975084582172</v>
       </c>
       <c r="F11">
-        <v>0.8674797792865059</v>
+        <v>0.8674797792865108</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.010117703662524</v>
+        <v>1.010117703662526</v>
       </c>
       <c r="J11">
-        <v>0.9383643562991074</v>
+        <v>0.9383643562991111</v>
       </c>
       <c r="K11">
-        <v>0.9599358303612288</v>
+        <v>0.9599358303612316</v>
       </c>
       <c r="L11">
-        <v>0.8954614086352203</v>
+        <v>0.8954614086352241</v>
       </c>
       <c r="M11">
-        <v>0.8854235312065527</v>
+        <v>0.8854235312065574</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8998986688227097</v>
+        <v>0.899898668822711</v>
       </c>
       <c r="D12">
-        <v>0.9404263187362473</v>
+        <v>0.9404263187362483</v>
       </c>
       <c r="E12">
-        <v>0.8732216712545313</v>
+        <v>0.8732216712545322</v>
       </c>
       <c r="F12">
-        <v>0.8618414402983281</v>
+        <v>0.8618414402983291</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.008493474652958</v>
+        <v>1.008493474652959</v>
       </c>
       <c r="J12">
-        <v>0.9346392519682545</v>
+        <v>0.9346392519682557</v>
       </c>
       <c r="K12">
-        <v>0.9567913496780251</v>
+        <v>0.956791349678026</v>
       </c>
       <c r="L12">
-        <v>0.891260397335803</v>
+        <v>0.8912603973358038</v>
       </c>
       <c r="M12">
-        <v>0.8801990231825347</v>
+        <v>0.8801990231825356</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.900874541272969</v>
+        <v>0.9008745412729704</v>
       </c>
       <c r="D13">
-        <v>0.9411743348346568</v>
+        <v>0.9411743348346576</v>
       </c>
       <c r="E13">
-        <v>0.8742177443185624</v>
+        <v>0.8742177443185627</v>
       </c>
       <c r="F13">
-        <v>0.8630685019785598</v>
+        <v>0.8630685019785604</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.008846382822567</v>
       </c>
       <c r="J13">
-        <v>0.9354484705629807</v>
+        <v>0.9354484705629817</v>
       </c>
       <c r="K13">
-        <v>0.9574743518042347</v>
+        <v>0.9574743518042356</v>
       </c>
       <c r="L13">
-        <v>0.8921751669127406</v>
+        <v>0.8921751669127409</v>
       </c>
       <c r="M13">
-        <v>0.8813361265554034</v>
+        <v>0.8813361265554041</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9040260437917835</v>
+        <v>0.9040260437917853</v>
       </c>
       <c r="D14">
-        <v>0.9435908362754346</v>
+        <v>0.9435908362754358</v>
       </c>
       <c r="E14">
-        <v>0.877425672014531</v>
+        <v>0.877425672014532</v>
       </c>
       <c r="F14">
-        <v>0.8670214710789556</v>
+        <v>0.867021471078957</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.009985433096418</v>
+        <v>1.009985433096419</v>
       </c>
       <c r="J14">
-        <v>0.9380609245366979</v>
+        <v>0.9380609245366993</v>
       </c>
       <c r="K14">
-        <v>0.9596796569938494</v>
+        <v>0.9596796569938506</v>
       </c>
       <c r="L14">
-        <v>0.8951201583516085</v>
+        <v>0.8951201583516094</v>
       </c>
       <c r="M14">
-        <v>0.8849989070641144</v>
+        <v>0.8849989070641158</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9059339940723852</v>
+        <v>0.9059339940723846</v>
       </c>
       <c r="D15">
-        <v>0.9450544282249427</v>
+        <v>0.945054428224942</v>
       </c>
       <c r="E15">
-        <v>0.8793613495877272</v>
+        <v>0.879361349587728</v>
       </c>
       <c r="F15">
-        <v>0.8694075574309406</v>
+        <v>0.8694075574309413</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.010674536013274</v>
       </c>
       <c r="J15">
-        <v>0.9396418994691998</v>
+        <v>0.9396418994691994</v>
       </c>
       <c r="K15">
-        <v>0.9610144697273791</v>
+        <v>0.9610144697273787</v>
       </c>
       <c r="L15">
-        <v>0.8968963630053801</v>
+        <v>0.8968963630053809</v>
       </c>
       <c r="M15">
-        <v>0.8872095314140463</v>
+        <v>0.8872095314140469</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,7 +953,7 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9165745866632075</v>
+        <v>0.9165745866632078</v>
       </c>
       <c r="D16">
         <v>0.9532251310823726</v>
@@ -962,7 +962,7 @@
         <v>0.8900711236222162</v>
       </c>
       <c r="F16">
-        <v>0.8826215314578632</v>
+        <v>0.8826215314578633</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,13 +971,13 @@
         <v>1.014510295122622</v>
       </c>
       <c r="J16">
-        <v>0.9484503097375122</v>
+        <v>0.9484503097375123</v>
       </c>
       <c r="K16">
-        <v>0.9684542557093435</v>
+        <v>0.9684542557093436</v>
       </c>
       <c r="L16">
-        <v>0.9067123409501532</v>
+        <v>0.9067123409501531</v>
       </c>
       <c r="M16">
         <v>0.8994473163378858</v>
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9228871700218102</v>
+        <v>0.9228871700218108</v>
       </c>
       <c r="D17">
-        <v>0.9580788044643294</v>
+        <v>0.95807880446433</v>
       </c>
       <c r="E17">
-        <v>0.8963593267435618</v>
+        <v>0.8963593267435621</v>
       </c>
       <c r="F17">
-        <v>0.8903903294649037</v>
+        <v>0.8903903294649043</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.016779376773721</v>
+        <v>1.016779376773722</v>
       </c>
       <c r="J17">
-        <v>0.9536690229699076</v>
+        <v>0.9536690229699082</v>
       </c>
       <c r="K17">
-        <v>0.9728640813098061</v>
+        <v>0.9728640813098066</v>
       </c>
       <c r="L17">
-        <v>0.9124663426796574</v>
+        <v>0.9124663426796578</v>
       </c>
       <c r="M17">
-        <v>0.9066382216355268</v>
+        <v>0.9066382216355272</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9264544977567239</v>
+        <v>0.9264544977567262</v>
       </c>
       <c r="D18">
-        <v>0.960823672181969</v>
+        <v>0.960823672181971</v>
       </c>
       <c r="E18">
-        <v>0.899892318405923</v>
+        <v>0.8998923184059268</v>
       </c>
       <c r="F18">
-        <v>0.8947587737309055</v>
+        <v>0.8947587737309096</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.018059289013439</v>
+        <v>1.01805928901344</v>
       </c>
       <c r="J18">
-        <v>0.9566158972788211</v>
+        <v>0.9566158972788233</v>
       </c>
       <c r="K18">
-        <v>0.9753547339505307</v>
+        <v>0.9753547339505327</v>
       </c>
       <c r="L18">
-        <v>0.9156959998704858</v>
+        <v>0.9156959998704894</v>
       </c>
       <c r="M18">
-        <v>0.9106802689557156</v>
+        <v>0.9106802689557197</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9276526822802842</v>
+        <v>0.9276526822802861</v>
       </c>
       <c r="D19">
-        <v>0.9617459236203096</v>
+        <v>0.9617459236203111</v>
       </c>
       <c r="E19">
-        <v>0.9010757171278495</v>
+        <v>0.9010757171278504</v>
       </c>
       <c r="F19">
-        <v>0.8962226142985604</v>
+        <v>0.896222614298562</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.018488775211706</v>
       </c>
       <c r="J19">
-        <v>0.9576053114705695</v>
+        <v>0.9576053114705713</v>
       </c>
       <c r="K19">
-        <v>0.9761910482051303</v>
+        <v>0.9761910482051318</v>
       </c>
       <c r="L19">
-        <v>0.9167772673859247</v>
+        <v>0.9167772673859257</v>
       </c>
       <c r="M19">
-        <v>0.9120344893683677</v>
+        <v>0.9120344893683693</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,13 +1105,13 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.92222206744765</v>
+        <v>0.9222220674476499</v>
       </c>
       <c r="D20">
-        <v>0.9575672001550444</v>
+        <v>0.9575672001550443</v>
       </c>
       <c r="E20">
-        <v>0.8956990039014767</v>
+        <v>0.8956990039014773</v>
       </c>
       <c r="F20">
         <v>0.8895741513422259</v>
@@ -1123,13 +1123,13 @@
         <v>1.01654055101806</v>
       </c>
       <c r="J20">
-        <v>0.9531194157929039</v>
+        <v>0.9531194157929037</v>
       </c>
       <c r="K20">
-        <v>0.972399602117101</v>
+        <v>0.9723996021171005</v>
       </c>
       <c r="L20">
-        <v>0.9118624552745441</v>
+        <v>0.9118624552745446</v>
       </c>
       <c r="M20">
         <v>0.9058829071405695</v>
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9031051822247577</v>
+        <v>0.903105182224758</v>
       </c>
       <c r="D21">
-        <v>0.9428846079634521</v>
+        <v>0.9428846079634526</v>
       </c>
       <c r="E21">
-        <v>0.8764897024481725</v>
+        <v>0.876489702448173</v>
       </c>
       <c r="F21">
-        <v>0.8658679432045716</v>
+        <v>0.8658679432045723</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.00965270786196</v>
+        <v>1.009652707861961</v>
       </c>
       <c r="J21">
-        <v>0.9372977060401794</v>
+        <v>0.9372977060401799</v>
       </c>
       <c r="K21">
-        <v>0.9590353352983304</v>
+        <v>0.959035335298331</v>
       </c>
       <c r="L21">
-        <v>0.8942610783987534</v>
+        <v>0.8942610783987539</v>
       </c>
       <c r="M21">
-        <v>0.8839301226076552</v>
+        <v>0.8839301226076559</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1184,10 +1184,10 @@
         <v>0.8896495614173915</v>
       </c>
       <c r="D22">
-        <v>0.9325779186985743</v>
+        <v>0.9325779186985744</v>
       </c>
       <c r="E22">
-        <v>0.8626792312036679</v>
+        <v>0.8626792312036677</v>
       </c>
       <c r="F22">
         <v>0.8488639117593776</v>
@@ -1202,10 +1202,10 @@
         <v>0.9261327611366491</v>
       </c>
       <c r="K22">
-        <v>0.9496147747350533</v>
+        <v>0.9496147747350532</v>
       </c>
       <c r="L22">
-        <v>0.8815688870517213</v>
+        <v>0.8815688870517214</v>
       </c>
       <c r="M22">
         <v>0.8681697354530118</v>
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8969447015752634</v>
+        <v>0.8969447015752643</v>
       </c>
       <c r="D23">
-        <v>0.9381628348984782</v>
+        <v>0.938162834898479</v>
       </c>
       <c r="E23">
-        <v>0.8701985373749819</v>
+        <v>0.8701985373749821</v>
       </c>
       <c r="F23">
-        <v>0.8581182346920703</v>
+        <v>0.858118234692071</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.007424672018533</v>
       </c>
       <c r="J23">
-        <v>0.9321889795340877</v>
+        <v>0.9321889795340885</v>
       </c>
       <c r="K23">
-        <v>0.9547235566355255</v>
+        <v>0.9547235566355261</v>
       </c>
       <c r="L23">
-        <v>0.8884830530319437</v>
+        <v>0.8884830530319439</v>
       </c>
       <c r="M23">
-        <v>0.8767484397283288</v>
+        <v>0.8767484397283295</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9225229493943945</v>
+        <v>0.9225229493943962</v>
       </c>
       <c r="D24">
-        <v>0.9577986357402066</v>
+        <v>0.9577986357402078</v>
       </c>
       <c r="E24">
-        <v>0.8959977872426179</v>
+        <v>0.8959977872426196</v>
       </c>
       <c r="F24">
-        <v>0.889943444949246</v>
+        <v>0.8899434449492479</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.016648599487475</v>
       </c>
       <c r="J24">
-        <v>0.9533680565698023</v>
+        <v>0.9533680565698038</v>
       </c>
       <c r="K24">
-        <v>0.972609729588968</v>
+        <v>0.9726097295889695</v>
       </c>
       <c r="L24">
-        <v>0.9121357126581</v>
+        <v>0.9121357126581014</v>
       </c>
       <c r="M24">
-        <v>0.9062246665046449</v>
+        <v>0.9062246665046472</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9477396166856457</v>
+        <v>0.9477396166856473</v>
       </c>
       <c r="D25">
-        <v>0.9772286006368296</v>
+        <v>0.9772286006368311</v>
       </c>
       <c r="E25">
-        <v>0.9206823131252531</v>
+        <v>0.9206823131252538</v>
       </c>
       <c r="F25">
-        <v>0.9205239746775941</v>
+        <v>0.9205239746775953</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.025654237213174</v>
+        <v>1.025654237213175</v>
       </c>
       <c r="J25">
-        <v>0.9741634966759488</v>
+        <v>0.9741634966759505</v>
       </c>
       <c r="K25">
-        <v>0.9901910077257594</v>
+        <v>0.9901910077257609</v>
       </c>
       <c r="L25">
-        <v>0.934650835361086</v>
+        <v>0.9346508353610867</v>
       </c>
       <c r="M25">
-        <v>0.9344955414759833</v>
+        <v>0.9344955414759848</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_32/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_32/res_bus/vm_pu.xlsx
@@ -418,37 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9654410197618079</v>
+        <v>0.9690147608427253</v>
       </c>
       <c r="D2">
-        <v>0.9909014585660286</v>
+        <v>0.9937439529156593</v>
       </c>
       <c r="E2">
-        <v>0.9376182964446079</v>
+        <v>0.9388440403536545</v>
       </c>
       <c r="F2">
-        <v>0.9416012858938173</v>
+        <v>0.9442690821869315</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.031902720826881</v>
+        <v>1.033344261308806</v>
       </c>
       <c r="J2">
-        <v>0.9887069141476765</v>
+        <v>0.9921634512008353</v>
       </c>
       <c r="K2">
-        <v>1.002489022954178</v>
+        <v>1.005291138007835</v>
       </c>
       <c r="L2">
-        <v>0.9500210090233845</v>
+        <v>0.9512266647479156</v>
       </c>
       <c r="M2">
-        <v>0.9539389684861873</v>
+        <v>0.9565636015585307</v>
+      </c>
+      <c r="N2">
+        <v>0.9935724371042791</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9772508810083799</v>
+        <v>0.9807789258290166</v>
       </c>
       <c r="D3">
-        <v>1.000034933129512</v>
+        <v>1.002846494617412</v>
       </c>
       <c r="E3">
-        <v>0.9487493581892628</v>
+        <v>0.9499323081553641</v>
       </c>
       <c r="F3">
-        <v>0.9555075685685799</v>
+        <v>0.9581165127533052</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036027791867588</v>
+        <v>1.037455583283121</v>
       </c>
       <c r="J3">
-        <v>0.9983815250475216</v>
+        <v>1.001807653813663</v>
       </c>
       <c r="K3">
-        <v>1.010667366999196</v>
+        <v>1.013443083116416</v>
       </c>
       <c r="L3">
-        <v>0.9600829035497757</v>
+        <v>0.9612486003293058</v>
       </c>
       <c r="M3">
-        <v>0.9667432745286747</v>
+        <v>0.9693149159645994</v>
+      </c>
+      <c r="N3">
+        <v>1.003230335591022</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9844920965765904</v>
+        <v>0.9879951502324176</v>
       </c>
       <c r="D4">
-        <v>1.005638336153458</v>
+        <v>1.008433135577907</v>
       </c>
       <c r="E4">
-        <v>0.9555094920821314</v>
+        <v>0.9566693692041313</v>
       </c>
       <c r="F4">
-        <v>0.9639773909010165</v>
+        <v>0.9665544194714906</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038536410791832</v>
+        <v>1.039956905711857</v>
       </c>
       <c r="J4">
-        <v>1.004300990711304</v>
+        <v>1.007711007519284</v>
       </c>
       <c r="K4">
-        <v>1.01566918442909</v>
+        <v>1.0184308345449</v>
       </c>
       <c r="L4">
-        <v>0.9661762900866558</v>
+        <v>0.9673205062261611</v>
       </c>
       <c r="M4">
-        <v>0.9745309405476572</v>
+        <v>0.9770739980924056</v>
+      </c>
+      <c r="N4">
+        <v>1.009142072736029</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9874502168729415</v>
+        <v>0.9909436815995674</v>
       </c>
       <c r="D5">
-        <v>1.007927906034176</v>
+        <v>1.010716310698128</v>
       </c>
       <c r="E5">
-        <v>0.9582569984078012</v>
+        <v>0.9594080864005831</v>
       </c>
       <c r="F5">
-        <v>0.9674255440240925</v>
+        <v>0.9699903749160639</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039556179967183</v>
+        <v>1.040973928738326</v>
       </c>
       <c r="J5">
-        <v>1.006716210850155</v>
+        <v>1.010120164975822</v>
       </c>
       <c r="K5">
-        <v>1.017709356617103</v>
+        <v>1.020465696660928</v>
       </c>
       <c r="L5">
-        <v>0.9686487559132738</v>
+        <v>0.9697848050998384</v>
       </c>
       <c r="M5">
-        <v>0.9776987564341124</v>
+        <v>0.9802309261902128</v>
+      </c>
+      <c r="N5">
+        <v>1.01155465147249</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9879421036910274</v>
+        <v>0.9914340078168917</v>
       </c>
       <c r="D6">
-        <v>1.008308647348832</v>
+        <v>1.011096013435423</v>
       </c>
       <c r="E6">
-        <v>0.9587130721833622</v>
+        <v>0.9598627331334099</v>
       </c>
       <c r="F6">
-        <v>0.967998261844679</v>
+        <v>0.9705611099913288</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039725452629891</v>
+        <v>1.041142757643058</v>
       </c>
       <c r="J6">
-        <v>1.007117649863632</v>
+        <v>1.01052062424233</v>
       </c>
       <c r="K6">
-        <v>1.018048417500356</v>
+        <v>1.020803898436887</v>
       </c>
       <c r="L6">
-        <v>0.969058938515322</v>
+        <v>0.970193662618566</v>
       </c>
       <c r="M6">
-        <v>0.9782247576671113</v>
+        <v>0.9807551597638613</v>
+      </c>
+      <c r="N6">
+        <v>1.011955679437089</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9845319496956785</v>
+        <v>0.9880348718221237</v>
       </c>
       <c r="D7">
-        <v>1.005669180531909</v>
+        <v>1.00846389209139</v>
       </c>
       <c r="E7">
-        <v>0.9555465619595807</v>
+        <v>0.9567063182815485</v>
       </c>
       <c r="F7">
-        <v>0.9640238910416591</v>
+        <v>0.9666007521229948</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038550169671648</v>
+        <v>1.039970626705077</v>
       </c>
       <c r="J7">
-        <v>1.004333541306261</v>
+        <v>1.00774347447297</v>
       </c>
       <c r="K7">
-        <v>1.015696683072502</v>
+        <v>1.018458259999059</v>
       </c>
       <c r="L7">
-        <v>0.9662096650728074</v>
+        <v>0.9673537688991289</v>
       </c>
       <c r="M7">
-        <v>0.9745736706272289</v>
+        <v>0.9771165785203504</v>
+      </c>
+      <c r="N7">
+        <v>1.009174585796514</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9695216496754121</v>
+        <v>0.9730788764693222</v>
       </c>
       <c r="D8">
-        <v>0.9940564626163025</v>
+        <v>0.996887741647785</v>
       </c>
       <c r="E8">
-        <v>0.9414793256613494</v>
+        <v>0.9426895152559354</v>
       </c>
       <c r="F8">
-        <v>0.946419698032096</v>
+        <v>0.9490661500055174</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033332432780357</v>
+        <v>1.03476895265647</v>
       </c>
       <c r="J8">
-        <v>0.992052482878965</v>
+        <v>0.9954979066160876</v>
       </c>
       <c r="K8">
-        <v>1.005317549374926</v>
+        <v>1.008110036145588</v>
       </c>
       <c r="L8">
-        <v>0.9535150221691634</v>
+        <v>0.9547061393894756</v>
       </c>
       <c r="M8">
-        <v>0.9583779274058019</v>
+        <v>0.9609833055846795</v>
+      </c>
+      <c r="N8">
+        <v>0.9969116278286883</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9394389607414053</v>
+        <v>0.9431385403873447</v>
       </c>
       <c r="D9">
-        <v>0.9708258693150186</v>
+        <v>0.9737547843188045</v>
       </c>
       <c r="E9">
-        <v>0.9126321276733745</v>
+        <v>0.9139795715825847</v>
       </c>
       <c r="F9">
-        <v>0.9105345711626551</v>
+        <v>0.9133678984251025</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.022701658969397</v>
+        <v>1.02418277795143</v>
       </c>
       <c r="J9">
-        <v>0.967327764522307</v>
+        <v>0.9708723684185749</v>
       </c>
       <c r="K9">
-        <v>0.9844107019651193</v>
+        <v>0.9872885252889597</v>
       </c>
       <c r="L9">
-        <v>0.9273218501869476</v>
+        <v>0.9286416114872736</v>
       </c>
       <c r="M9">
-        <v>0.92526760232425</v>
+        <v>0.9280424915144263</v>
+      </c>
+      <c r="N9">
+        <v>0.9722511185423466</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9158446272564132</v>
+        <v>0.9196970808079294</v>
       </c>
       <c r="D10">
-        <v>0.9526641720898174</v>
+        <v>0.9556995770937451</v>
       </c>
       <c r="E10">
-        <v>0.8893409139276994</v>
+        <v>0.8908433507290783</v>
       </c>
       <c r="F10">
-        <v>0.8817198992574548</v>
+        <v>0.8847611468832602</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.014247580178826</v>
+        <v>1.015778719058106</v>
       </c>
       <c r="J10">
-        <v>0.9478465079378615</v>
+        <v>0.9515035169734491</v>
       </c>
       <c r="K10">
-        <v>0.9679441287873611</v>
+        <v>0.9709175670713852</v>
       </c>
       <c r="L10">
-        <v>0.906043703706474</v>
+        <v>0.9075092259688903</v>
       </c>
       <c r="M10">
-        <v>0.8986125522117875</v>
+        <v>0.9015775039571939</v>
+      </c>
+      <c r="N10">
+        <v>0.9528547611065301</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.904392186590077</v>
+        <v>0.9083365512447</v>
       </c>
       <c r="D11">
-        <v>0.9438716691234381</v>
+        <v>0.9469716402137471</v>
       </c>
       <c r="E11">
-        <v>0.8777975084582172</v>
+        <v>0.8793966717497608</v>
       </c>
       <c r="F11">
-        <v>0.8674797792865108</v>
+        <v>0.8706495021012917</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.010117703662526</v>
+        <v>1.011679549786918</v>
       </c>
       <c r="J11">
-        <v>0.9383643562991111</v>
+        <v>0.9420908775135561</v>
       </c>
       <c r="K11">
-        <v>0.9599358303612316</v>
+        <v>0.9629680216559433</v>
       </c>
       <c r="L11">
-        <v>0.8954614086352241</v>
+        <v>0.8970179950688193</v>
       </c>
       <c r="M11">
-        <v>0.8854235312065574</v>
+        <v>0.8885063190367187</v>
+      </c>
+      <c r="N11">
+        <v>0.9434287546189595</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.899898668822711</v>
+        <v>0.9038830056170675</v>
       </c>
       <c r="D12">
-        <v>0.9404263187362483</v>
+        <v>0.9435544735137348</v>
       </c>
       <c r="E12">
-        <v>0.8732216712545322</v>
+        <v>0.8748636917810644</v>
       </c>
       <c r="F12">
-        <v>0.8618414402983291</v>
+        <v>0.8650678168099729</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.008493474652959</v>
+        <v>1.010068788364699</v>
       </c>
       <c r="J12">
-        <v>0.9346392519682557</v>
+        <v>0.9383963625188311</v>
       </c>
       <c r="K12">
-        <v>0.956791349678026</v>
+        <v>0.9598493257691288</v>
       </c>
       <c r="L12">
-        <v>0.8912603973358038</v>
+        <v>0.8928573435538801</v>
       </c>
       <c r="M12">
-        <v>0.8801990231825356</v>
+        <v>0.8833338366528609</v>
+      </c>
+      <c r="N12">
+        <v>0.939728992989175</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9008745412729704</v>
+        <v>0.9048499926777902</v>
       </c>
       <c r="D13">
-        <v>0.9411743348346576</v>
+        <v>0.9442962195921349</v>
       </c>
       <c r="E13">
-        <v>0.8742177443185627</v>
+        <v>0.8758501975539641</v>
       </c>
       <c r="F13">
-        <v>0.8630685019785604</v>
+        <v>0.8662822449093956</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.008846382822567</v>
+        <v>1.010418697461898</v>
       </c>
       <c r="J13">
-        <v>0.9354484705629817</v>
+        <v>0.9391987641940437</v>
       </c>
       <c r="K13">
-        <v>0.9574743518042356</v>
+        <v>0.9605265850203211</v>
       </c>
       <c r="L13">
-        <v>0.8921751669127409</v>
+        <v>0.8937631029399506</v>
       </c>
       <c r="M13">
-        <v>0.8813361265554041</v>
+        <v>0.8844593356219066</v>
+      </c>
+      <c r="N13">
+        <v>0.9405325341668032</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9040260437917853</v>
+        <v>0.9079735771676734</v>
       </c>
       <c r="D14">
-        <v>0.9435908362754358</v>
+        <v>0.9466930394018425</v>
       </c>
       <c r="E14">
-        <v>0.877425672014532</v>
+        <v>0.8790282155248915</v>
       </c>
       <c r="F14">
-        <v>0.867021471078957</v>
+        <v>0.8701956680264873</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.009985433096419</v>
+        <v>1.011548344526356</v>
       </c>
       <c r="J14">
-        <v>0.9380609245366993</v>
+        <v>0.9417898632574111</v>
       </c>
       <c r="K14">
-        <v>0.9596796569938506</v>
+        <v>0.9627138875219868</v>
       </c>
       <c r="L14">
-        <v>0.8951201583516094</v>
+        <v>0.8966799278343405</v>
       </c>
       <c r="M14">
-        <v>0.8849989070641158</v>
+        <v>0.8880858022891623</v>
+      </c>
+      <c r="N14">
+        <v>0.9431273128880437</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9059339940723846</v>
+        <v>0.9098651811081736</v>
       </c>
       <c r="D15">
-        <v>0.945054428224942</v>
+        <v>0.9481451211820086</v>
       </c>
       <c r="E15">
-        <v>0.879361349587728</v>
+        <v>0.8809464878013183</v>
       </c>
       <c r="F15">
-        <v>0.8694075574309413</v>
+        <v>0.8725587055274677</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.010674536013274</v>
+        <v>1.012231956347959</v>
       </c>
       <c r="J15">
-        <v>0.9396418994691994</v>
+        <v>0.9433583812919298</v>
       </c>
       <c r="K15">
-        <v>0.9610144697273787</v>
+        <v>0.9640381897681574</v>
       </c>
       <c r="L15">
-        <v>0.8968963630053809</v>
+        <v>0.8984397428576486</v>
       </c>
       <c r="M15">
-        <v>0.8872095314140469</v>
+        <v>0.8902752695066558</v>
+      </c>
+      <c r="N15">
+        <v>0.9446980583980832</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9165745866632078</v>
+        <v>0.9204216223922432</v>
       </c>
       <c r="D16">
-        <v>0.9532251310823726</v>
+        <v>0.9562567414409434</v>
       </c>
       <c r="E16">
-        <v>0.8900711236222162</v>
+        <v>0.8915679397147557</v>
       </c>
       <c r="F16">
-        <v>0.8826215314578633</v>
+        <v>0.8856552856197915</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.014510295122622</v>
+        <v>1.016039636599335</v>
       </c>
       <c r="J16">
-        <v>0.9484503097375123</v>
+        <v>0.9521032609139103</v>
       </c>
       <c r="K16">
-        <v>0.9684542557093436</v>
+        <v>0.9714242565568574</v>
       </c>
       <c r="L16">
-        <v>0.9067123409501531</v>
+        <v>0.9081725730926226</v>
       </c>
       <c r="M16">
-        <v>0.8994473163378858</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9024054025410808</v>
+      </c>
+      <c r="N16">
+        <v>0.9534553567521786</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9228871700218108</v>
+        <v>0.9266893411583264</v>
       </c>
       <c r="D17">
-        <v>0.95807880446433</v>
+        <v>0.9610790448942624</v>
       </c>
       <c r="E17">
-        <v>0.8963593267435621</v>
+        <v>0.8978099528344853</v>
       </c>
       <c r="F17">
-        <v>0.8903903294649043</v>
+        <v>0.8933623787141349</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.016779376773722</v>
+        <v>1.018293895974175</v>
       </c>
       <c r="J17">
-        <v>0.9536690229699082</v>
+        <v>0.9572885611349321</v>
       </c>
       <c r="K17">
-        <v>0.9728640813098066</v>
+        <v>0.9758057412707881</v>
       </c>
       <c r="L17">
-        <v>0.9124663426796578</v>
+        <v>0.9138831106578867</v>
       </c>
       <c r="M17">
-        <v>0.9066382216355272</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9095398112211852</v>
+      </c>
+      <c r="N17">
+        <v>0.9586480206942763</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9264544977567262</v>
+        <v>0.9302328066671821</v>
       </c>
       <c r="D18">
-        <v>0.960823672181971</v>
+        <v>0.9638072688772586</v>
       </c>
       <c r="E18">
-        <v>0.8998923184059268</v>
+        <v>0.901318638363757</v>
       </c>
       <c r="F18">
-        <v>0.8947587737309096</v>
+        <v>0.8976982592756969</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.01805928901344</v>
+        <v>1.019565973274118</v>
       </c>
       <c r="J18">
-        <v>0.9566158972788233</v>
+        <v>0.9602178113025611</v>
       </c>
       <c r="K18">
-        <v>0.9753547339505327</v>
+        <v>0.9782814169113445</v>
       </c>
       <c r="L18">
-        <v>0.9156959998704894</v>
+        <v>0.9170899039212815</v>
       </c>
       <c r="M18">
-        <v>0.9106802689557197</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.913552073679425</v>
+      </c>
+      <c r="N18">
+        <v>0.9615814307331331</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9276526822802861</v>
+        <v>0.9314232046917931</v>
       </c>
       <c r="D19">
-        <v>0.9617459236203111</v>
+        <v>0.964724095866421</v>
       </c>
       <c r="E19">
-        <v>0.9010757171278504</v>
+        <v>0.9024941454629736</v>
       </c>
       <c r="F19">
-        <v>0.896222614298562</v>
+        <v>0.8991515127092508</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.018488775211706</v>
+        <v>1.019992910788438</v>
       </c>
       <c r="J19">
-        <v>0.9576053114705713</v>
+        <v>0.9612014982858659</v>
       </c>
       <c r="K19">
-        <v>0.9761910482051318</v>
+        <v>0.9791128596513122</v>
       </c>
       <c r="L19">
-        <v>0.9167772673859257</v>
+        <v>0.918163749450435</v>
       </c>
       <c r="M19">
-        <v>0.9120344893683693</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9148966154716283</v>
+      </c>
+      <c r="N19">
+        <v>0.9625665146647845</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9222220674476499</v>
+        <v>0.9260288031793229</v>
       </c>
       <c r="D20">
-        <v>0.9575672001550443</v>
+        <v>0.9605706277138503</v>
       </c>
       <c r="E20">
-        <v>0.8956990039014773</v>
+        <v>0.8971543002947489</v>
       </c>
       <c r="F20">
-        <v>0.8895741513422259</v>
+        <v>0.8925524500025404</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.01654055101806</v>
+        <v>1.018056572973981</v>
       </c>
       <c r="J20">
-        <v>0.9531194157929037</v>
+        <v>0.9567423373511834</v>
       </c>
       <c r="K20">
-        <v>0.9723996021171005</v>
+        <v>0.9753441349667215</v>
       </c>
       <c r="L20">
-        <v>0.9118624552745446</v>
+        <v>0.9132836171196929</v>
       </c>
       <c r="M20">
-        <v>0.9058829071405695</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9087902153770224</v>
+      </c>
+      <c r="N20">
+        <v>0.958101021210102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.903105182224758</v>
+        <v>0.9070607529415935</v>
       </c>
       <c r="D21">
-        <v>0.9428846079634526</v>
+        <v>0.9459924742706588</v>
       </c>
       <c r="E21">
-        <v>0.876489702448173</v>
+        <v>0.8781008331144948</v>
       </c>
       <c r="F21">
-        <v>0.8658679432045723</v>
+        <v>0.8690535018028974</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.009652707861961</v>
+        <v>1.011218323224338</v>
       </c>
       <c r="J21">
-        <v>0.9372977060401799</v>
+        <v>0.9410327825058964</v>
       </c>
       <c r="K21">
-        <v>0.959035335298331</v>
+        <v>0.9620747420524968</v>
       </c>
       <c r="L21">
-        <v>0.8942610783987539</v>
+        <v>0.8958289343049353</v>
       </c>
       <c r="M21">
-        <v>0.8839301226076559</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.8870274491801129</v>
+      </c>
+      <c r="N21">
+        <v>0.9423691569950237</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8896495614173915</v>
+        <v>0.8937347509232562</v>
       </c>
       <c r="D22">
-        <v>0.9325779186985744</v>
+        <v>0.9357774310817658</v>
       </c>
       <c r="E22">
-        <v>0.8626792312036677</v>
+        <v>0.8644314306336811</v>
       </c>
       <c r="F22">
-        <v>0.8488639117593776</v>
+        <v>0.8522352512032056</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.004781812921729</v>
+        <v>1.006391362666738</v>
       </c>
       <c r="J22">
-        <v>0.9261327611366491</v>
+        <v>0.929967879124272</v>
       </c>
       <c r="K22">
-        <v>0.9496147747350532</v>
+        <v>0.952738345136191</v>
       </c>
       <c r="L22">
-        <v>0.8815688870517214</v>
+        <v>0.8832696076742194</v>
       </c>
       <c r="M22">
-        <v>0.8681697354530118</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.871437802291307</v>
+      </c>
+      <c r="N22">
+        <v>0.9312885401814349</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8969447015752643</v>
+        <v>0.9009566588834882</v>
       </c>
       <c r="D23">
-        <v>0.938162834898479</v>
+        <v>0.9413104981618695</v>
       </c>
       <c r="E23">
-        <v>0.8701985373749821</v>
+        <v>0.8718704445181042</v>
       </c>
       <c r="F23">
-        <v>0.858118234692071</v>
+        <v>0.8613840276507596</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.007424672018533</v>
+        <v>1.009009327112346</v>
       </c>
       <c r="J23">
-        <v>0.9321889795340885</v>
+        <v>0.9359673409109269</v>
       </c>
       <c r="K23">
-        <v>0.9547235566355261</v>
+        <v>0.9577994237029563</v>
       </c>
       <c r="L23">
-        <v>0.8884830530319439</v>
+        <v>0.8901081468425683</v>
       </c>
       <c r="M23">
-        <v>0.8767484397283295</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.8799194683671776</v>
+      </c>
+      <c r="N23">
+        <v>0.937296521891975</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9225229493943962</v>
+        <v>0.9263276155821394</v>
       </c>
       <c r="D24">
-        <v>0.9577986357402078</v>
+        <v>0.9608006181545931</v>
       </c>
       <c r="E24">
-        <v>0.8959977872426196</v>
+        <v>0.8974509653415312</v>
       </c>
       <c r="F24">
-        <v>0.8899434449492479</v>
+        <v>0.8929189093804352</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.016648599487475</v>
+        <v>1.018163939953302</v>
       </c>
       <c r="J24">
-        <v>0.9533680565698038</v>
+        <v>0.9569894436607871</v>
       </c>
       <c r="K24">
-        <v>0.9726097295889695</v>
+        <v>0.9755529595901388</v>
       </c>
       <c r="L24">
-        <v>0.9121357126581014</v>
+        <v>0.9135548815654603</v>
       </c>
       <c r="M24">
-        <v>0.9062246665046472</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.909129381124863</v>
+      </c>
+      <c r="N24">
+        <v>0.9583484784390088</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9477396166856473</v>
+        <v>0.9513948219961956</v>
       </c>
       <c r="D25">
-        <v>0.9772286006368311</v>
+        <v>0.9801268791818052</v>
       </c>
       <c r="E25">
-        <v>0.9206823131252538</v>
+        <v>0.921986214003562</v>
       </c>
       <c r="F25">
-        <v>0.9205239746775953</v>
+        <v>0.923298345304978</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.025654237213175</v>
+        <v>1.027121181811536</v>
       </c>
       <c r="J25">
-        <v>0.9741634966759505</v>
+        <v>0.97767646565397</v>
       </c>
       <c r="K25">
-        <v>0.9901910077257609</v>
+        <v>0.9930417382166234</v>
       </c>
       <c r="L25">
-        <v>0.9346508353610867</v>
+        <v>0.9359297166235937</v>
       </c>
       <c r="M25">
-        <v>0.9344955414759848</v>
+        <v>0.937216763712722</v>
+      </c>
+      <c r="N25">
+        <v>0.9790648783762567</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_32/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_32/res_bus/vm_pu.xlsx
@@ -417,336 +417,984 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>1.05</v>
+      </c>
+      <c r="C2">
+        <v>1.007018937165714</v>
+      </c>
+      <c r="D2">
+        <v>1.02161077617462</v>
+      </c>
       <c r="E2">
         <v>0.9527101846680761</v>
       </c>
+      <c r="F2">
+        <v>0.984243705708406</v>
+      </c>
       <c r="G2">
         <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1.043192999780185</v>
+      </c>
+      <c r="J2">
+        <v>1.028991720750826</v>
+      </c>
+      <c r="K2">
+        <v>1.032777029775771</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
+      <c r="M2">
+        <v>0.9959270045576148</v>
+      </c>
+      <c r="N2">
+        <v>1.030453007021292</v>
+      </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
+      <c r="C3">
+        <v>1.013389275944097</v>
+      </c>
+      <c r="D3">
+        <v>1.026284658262169</v>
+      </c>
       <c r="E3">
-        <v>0.9571825583057852</v>
+        <v>0.9571825583057848</v>
+      </c>
+      <c r="F3">
+        <v>0.9933412485006605</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="I3">
+        <v>1.045367308333261</v>
+      </c>
+      <c r="J3">
+        <v>1.033521473419785</v>
+      </c>
+      <c r="K3">
+        <v>1.036591915205334</v>
+      </c>
       <c r="L3">
-        <v>0.9683942856474069</v>
+        <v>0.9683942856474066</v>
+      </c>
+      <c r="M3">
+        <v>1.004060044316475</v>
+      </c>
+      <c r="N3">
+        <v>1.034989192458611</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
+      <c r="C4">
+        <v>1.017387325485718</v>
+      </c>
+      <c r="D4">
+        <v>1.029220566044311</v>
+      </c>
       <c r="E4">
-        <v>0.9600238894088614</v>
+        <v>0.9600238894088612</v>
+      </c>
+      <c r="F4">
+        <v>0.9990418512923275</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="I4">
+        <v>1.046720034746877</v>
+      </c>
+      <c r="J4">
+        <v>1.036356481918119</v>
+      </c>
+      <c r="K4">
+        <v>1.038978665894529</v>
+      </c>
       <c r="L4">
-        <v>0.9706300002952758</v>
+        <v>0.9706300002952756</v>
+      </c>
+      <c r="M4">
+        <v>1.009151854097047</v>
+      </c>
+      <c r="N4">
+        <v>1.037828226994193</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
+      <c r="C5">
+        <v>1.019040026583453</v>
+      </c>
+      <c r="D5">
+        <v>1.030434739196314</v>
+      </c>
       <c r="E5">
-        <v>0.9612062874769893</v>
+        <v>0.9612062874769891</v>
+      </c>
+      <c r="F5">
+        <v>1.001396627668477</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="I5">
+        <v>1.047276336527164</v>
+      </c>
+      <c r="J5">
+        <v>1.037526505887373</v>
+      </c>
+      <c r="K5">
+        <v>1.039963461824516</v>
+      </c>
       <c r="L5">
-        <v>0.9715596031702914</v>
+        <v>0.9715596031702912</v>
+      </c>
+      <c r="M5">
+        <v>1.011254047957043</v>
+      </c>
+      <c r="N5">
+        <v>1.038999912531687</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
+      <c r="C6">
+        <v>1.019315919895294</v>
+      </c>
+      <c r="D6">
+        <v>1.030637456332757</v>
+      </c>
       <c r="E6">
         <v>0.9614041218017085</v>
       </c>
+      <c r="F6">
+        <v>1.001789632887123</v>
+      </c>
       <c r="G6">
         <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1.047369032037848</v>
+      </c>
+      <c r="J6">
+        <v>1.037721711307731</v>
+      </c>
+      <c r="K6">
+        <v>1.040127749783957</v>
       </c>
       <c r="L6">
         <v>0.9717150950965046</v>
+      </c>
+      <c r="M6">
+        <v>1.011604831701427</v>
+      </c>
+      <c r="N6">
+        <v>1.039195395166132</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
+      <c r="C7">
+        <v>1.017409517270551</v>
+      </c>
+      <c r="D7">
+        <v>1.029236867432205</v>
+      </c>
       <c r="E7">
-        <v>0.9600397355691358</v>
+        <v>0.9600397355691357</v>
+      </c>
+      <c r="F7">
+        <v>0.9990734764993464</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="I7">
+        <v>1.046727515997406</v>
+      </c>
+      <c r="J7">
+        <v>1.036372200063641</v>
+      </c>
+      <c r="K7">
+        <v>1.038991896622215</v>
+      </c>
       <c r="L7">
-        <v>0.9706424616290569</v>
+        <v>0.9706424616290568</v>
+      </c>
+      <c r="M7">
+        <v>1.009180091491623</v>
+      </c>
+      <c r="N7">
+        <v>1.037843967461285</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
+      <c r="C8">
+        <v>1.009198505344555</v>
+      </c>
+      <c r="D8">
+        <v>1.023209323299236</v>
+      </c>
       <c r="E8">
-        <v>0.9542328392922296</v>
+        <v>0.9542328392922297</v>
+      </c>
+      <c r="F8">
+        <v>0.9873585708846397</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="I8">
+        <v>1.043939411475552</v>
+      </c>
+      <c r="J8">
+        <v>1.030543202208519</v>
+      </c>
+      <c r="K8">
+        <v>1.034083825631321</v>
+      </c>
       <c r="L8">
-        <v>0.9660706434537709</v>
+        <v>0.966070643453771</v>
+      </c>
+      <c r="M8">
+        <v>0.9987125456360202</v>
+      </c>
+      <c r="N8">
+        <v>1.032006691760613</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
+      <c r="C9">
+        <v>0.9936998805435191</v>
+      </c>
+      <c r="D9">
+        <v>1.011856856865633</v>
+      </c>
       <c r="E9">
-        <v>0.9435740419925934</v>
+        <v>0.9435740419923925</v>
+      </c>
+      <c r="F9">
+        <v>0.9651483817764873</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="I9">
+        <v>1.038581772695292</v>
+      </c>
+      <c r="J9">
+        <v>1.019477090766491</v>
+      </c>
+      <c r="K9">
+        <v>1.024760449915695</v>
+      </c>
       <c r="L9">
-        <v>0.9576541208834083</v>
+        <v>0.9576541208832519</v>
+      </c>
+      <c r="M9">
+        <v>0.9788333980302399</v>
+      </c>
+      <c r="N9">
+        <v>1.020924865171037</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
+      <c r="C10">
+        <v>0.9825479684693281</v>
+      </c>
+      <c r="D10">
+        <v>1.003711303890498</v>
+      </c>
       <c r="E10">
-        <v>0.9361465105547279</v>
+        <v>0.9361465105547282</v>
+      </c>
+      <c r="F10">
+        <v>0.9490602812019027</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="I10">
+        <v>1.034664135600478</v>
+      </c>
+      <c r="J10">
+        <v>1.011471533049778</v>
+      </c>
+      <c r="K10">
+        <v>1.018013871363114</v>
+      </c>
       <c r="L10">
-        <v>0.9517730114689356</v>
+        <v>0.9517730114689357</v>
+      </c>
+      <c r="M10">
+        <v>0.9644144897882874</v>
+      </c>
+      <c r="N10">
+        <v>1.012907938644114</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.05</v>
+      </c>
+      <c r="C11">
+        <v>0.9774909744797137</v>
+      </c>
+      <c r="D11">
+        <v>1.000024586353311</v>
+      </c>
       <c r="E11">
-        <v>0.9328454960016259</v>
+        <v>0.9328454960016258</v>
+      </c>
+      <c r="F11">
+        <v>0.9417284350827597</v>
       </c>
       <c r="G11">
         <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1.032873253068734</v>
+      </c>
+      <c r="J11">
+        <v>1.007831090224718</v>
+      </c>
+      <c r="K11">
+        <v>1.014946039026584</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
+      </c>
+      <c r="M11">
+        <v>0.9578398045029889</v>
+      </c>
+      <c r="N11">
+        <v>1.009262325972679</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.05</v>
+      </c>
+      <c r="C12">
+        <v>0.9755749391334346</v>
+      </c>
+      <c r="D12">
+        <v>0.998628927790923</v>
+      </c>
       <c r="E12">
-        <v>0.9316058186411974</v>
+        <v>0.9316058186411971</v>
+      </c>
+      <c r="F12">
+        <v>0.9389438760644723</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="I12">
+        <v>1.032192592860413</v>
+      </c>
+      <c r="J12">
+        <v>1.00645023072647</v>
+      </c>
+      <c r="K12">
+        <v>1.013782442605473</v>
+      </c>
       <c r="L12">
-        <v>0.9481721277252509</v>
+        <v>0.9481721277252507</v>
+      </c>
+      <c r="M12">
+        <v>0.9553423827680785</v>
+      </c>
+      <c r="N12">
+        <v>1.007879505495557</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
+      <c r="C13">
+        <v>0.97598769799626</v>
+      </c>
+      <c r="D13">
+        <v>0.9989295289427021</v>
+      </c>
       <c r="E13">
         <v>0.931872359336823</v>
       </c>
+      <c r="F13">
+        <v>0.939544053609095</v>
+      </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="I13">
+        <v>1.032339317768721</v>
+      </c>
+      <c r="J13">
+        <v>1.006747769761707</v>
+      </c>
+      <c r="K13">
+        <v>1.014033163311411</v>
+      </c>
       <c r="L13">
-        <v>0.9483836088965216</v>
+        <v>0.9483836088965215</v>
+      </c>
+      <c r="M13">
+        <v>0.9558806886263765</v>
+      </c>
+      <c r="N13">
+        <v>1.008177467070351</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.05</v>
+      </c>
+      <c r="C14">
+        <v>0.9773333834943196</v>
+      </c>
+      <c r="D14">
+        <v>0.9999097704670331</v>
+      </c>
       <c r="E14">
-        <v>0.9327433047194317</v>
+        <v>0.9327433047194318</v>
+      </c>
+      <c r="F14">
+        <v>0.9414995504744893</v>
       </c>
       <c r="G14">
         <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1.032817312441102</v>
+      </c>
+      <c r="J14">
+        <v>1.007717547877014</v>
+      </c>
+      <c r="K14">
+        <v>1.014850359680599</v>
       </c>
       <c r="L14">
         <v>0.9490745509764519</v>
+      </c>
+      <c r="M14">
+        <v>0.9576345298637979</v>
+      </c>
+      <c r="N14">
+        <v>1.009148622381818</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.05</v>
+      </c>
+      <c r="C15">
+        <v>0.9781574078154411</v>
+      </c>
+      <c r="D15">
+        <v>1.00051017837433</v>
+      </c>
       <c r="E15">
-        <v>0.9332781050737294</v>
+        <v>0.9332781050717475</v>
+      </c>
+      <c r="F15">
+        <v>0.9426960849081427</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="I15">
+        <v>1.03310973356419</v>
+      </c>
+      <c r="J15">
+        <v>1.00831118461436</v>
+      </c>
+      <c r="K15">
+        <v>1.015350605750118</v>
+      </c>
       <c r="L15">
-        <v>0.9494987508782939</v>
+        <v>0.9494987508767193</v>
+      </c>
+      <c r="M15">
+        <v>0.958707622498553</v>
+      </c>
+      <c r="N15">
+        <v>1.009743102151422</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>1.05</v>
+      </c>
+      <c r="C16">
+        <v>0.9828785011392004</v>
+      </c>
+      <c r="D16">
+        <v>1.003952429733547</v>
+      </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>0.9363637346017258</v>
+      </c>
+      <c r="F16">
+        <v>0.9495386568578512</v>
       </c>
       <c r="G16">
         <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1.034780896773511</v>
+      </c>
+      <c r="J16">
+        <v>1.011709266463762</v>
+      </c>
+      <c r="K16">
+        <v>1.018214217557961</v>
       </c>
       <c r="L16">
         <v>0.9519451749175715</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0.9648433990630909</v>
+      </c>
+      <c r="N16">
+        <v>1.013146009666816</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>1.05</v>
+      </c>
+      <c r="C17">
+        <v>0.9857766060176817</v>
+      </c>
+      <c r="D17">
+        <v>1.006067421998059</v>
+      </c>
       <c r="E17">
         <v>0.9382760156855671</v>
       </c>
+      <c r="F17">
+        <v>0.9537288206873765</v>
+      </c>
       <c r="G17">
         <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1.035803041853897</v>
+      </c>
+      <c r="J17">
+        <v>1.013792558592497</v>
+      </c>
+      <c r="K17">
+        <v>1.01996989715146</v>
       </c>
       <c r="L17">
         <v>0.9534603602068054</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0.9685998923663836</v>
+      </c>
+      <c r="N17">
+        <v>1.01523226030933</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>1.05</v>
+      </c>
+      <c r="C18">
+        <v>0.9874452600485512</v>
+      </c>
+      <c r="D18">
+        <v>1.007285826938379</v>
+      </c>
       <c r="E18">
-        <v>0.9393832867215683</v>
+        <v>0.9393832867215685</v>
+      </c>
+      <c r="F18">
+        <v>0.9561380687468943</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="I18">
+        <v>1.036390214923871</v>
+      </c>
+      <c r="J18">
+        <v>1.014991107151446</v>
+      </c>
+      <c r="K18">
+        <v>1.020979971553717</v>
+      </c>
       <c r="L18">
-        <v>0.9543373515865726</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.9543373515865727</v>
+      </c>
+      <c r="M18">
+        <v>0.9707594507471274</v>
+      </c>
+      <c r="N18">
+        <v>1.016432510944708</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>1.05</v>
+      </c>
+      <c r="C19">
+        <v>0.9880106314906317</v>
+      </c>
+      <c r="D19">
+        <v>1.007698751212875</v>
+      </c>
       <c r="E19">
-        <v>0.9397594814684966</v>
+        <v>0.9397594814684967</v>
+      </c>
+      <c r="F19">
+        <v>0.9569538313059651</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="I19">
+        <v>1.03658892967702</v>
+      </c>
+      <c r="J19">
+        <v>1.015397035665657</v>
+      </c>
+      <c r="K19">
+        <v>1.021322066648674</v>
+      </c>
       <c r="L19">
-        <v>0.9546352493816591</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.9546352493816592</v>
+      </c>
+      <c r="M19">
+        <v>0.9714906088865644</v>
+      </c>
+      <c r="N19">
+        <v>1.01683901592397</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>1.05</v>
+      </c>
+      <c r="C20">
+        <v>0.9854679405081188</v>
+      </c>
+      <c r="D20">
+        <v>1.005842094443674</v>
+      </c>
       <c r="E20">
-        <v>0.9380716924660141</v>
+        <v>0.938071692466014</v>
+      </c>
+      <c r="F20">
+        <v>0.9532828977911519</v>
       </c>
       <c r="G20">
         <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1.035694317494456</v>
+      </c>
+      <c r="J20">
+        <v>1.0135707750461</v>
+      </c>
+      <c r="K20">
+        <v>1.019782989672768</v>
       </c>
       <c r="L20">
         <v>0.9532985019057444</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0.9682001558363591</v>
+      </c>
+      <c r="N20">
+        <v>1.015010161804858</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>1.05</v>
+      </c>
+      <c r="C21">
+        <v>0.9769381812458798</v>
+      </c>
+      <c r="D21">
+        <v>0.9996218581347769</v>
+      </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9324872132148894</v>
+      </c>
+      <c r="F21">
+        <v>0.9409254496641734</v>
       </c>
       <c r="G21">
         <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1.032676992241951</v>
+      </c>
+      <c r="J21">
+        <v>1.00743278480297</v>
+      </c>
+      <c r="K21">
+        <v>1.014610398072967</v>
       </c>
       <c r="L21">
         <v>0.9488714019981064</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0.957119642437845</v>
+      </c>
+      <c r="N21">
+        <v>1.008863454911546</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>1.05</v>
+      </c>
+      <c r="C22">
+        <v>0.9713553528043354</v>
+      </c>
+      <c r="D22">
+        <v>0.9955577172300064</v>
+      </c>
       <c r="E22">
         <v>0.928897295365116</v>
       </c>
+      <c r="F22">
+        <v>0.9327979594974898</v>
+      </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="I22">
+        <v>1.030689753622247</v>
+      </c>
+      <c r="J22">
+        <v>1.00340638325318</v>
+      </c>
+      <c r="K22">
+        <v>1.011217693275952</v>
+      </c>
       <c r="L22">
-        <v>0.9460223821572514</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.9460223821572515</v>
+      </c>
+      <c r="M22">
+        <v>0.9498295703759623</v>
+      </c>
+      <c r="N22">
+        <v>1.00483133540972</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>1.05</v>
+      </c>
+      <c r="C23">
+        <v>0.97433700967544</v>
+      </c>
+      <c r="D23">
+        <v>0.9977275641198873</v>
+      </c>
       <c r="E23">
-        <v>0.9308081199963311</v>
+        <v>0.9308081199963315</v>
+      </c>
+      <c r="F23">
+        <v>0.9371427814759116</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="I23">
+        <v>1.03175223477438</v>
+      </c>
+      <c r="J23">
+        <v>1.005557637543681</v>
+      </c>
+      <c r="K23">
+        <v>1.013030314467036</v>
+      </c>
       <c r="L23">
-        <v>0.9475391330285313</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.9475391330285319</v>
+      </c>
+      <c r="M23">
+        <v>0.9537269082526777</v>
+      </c>
+      <c r="N23">
+        <v>1.006985644728066</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>1.05</v>
+      </c>
+      <c r="C24">
+        <v>0.9856074801664702</v>
+      </c>
+      <c r="D24">
+        <v>1.00594395717787</v>
+      </c>
       <c r="E24">
-        <v>0.9381640424011831</v>
+        <v>0.9381640424011829</v>
+      </c>
+      <c r="F24">
+        <v>0.9534844982456449</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="I24">
+        <v>1.035743473156114</v>
+      </c>
+      <c r="J24">
+        <v>1.013671040600203</v>
+      </c>
+      <c r="K24">
+        <v>1.01986748817952</v>
+      </c>
       <c r="L24">
-        <v>0.9533716596442546</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.9533716596442545</v>
+      </c>
+      <c r="M24">
+        <v>0.968380876629842</v>
+      </c>
+      <c r="N24">
+        <v>1.015110569747548</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
+      <c r="C25">
+        <v>0.9978408354132844</v>
+      </c>
+      <c r="D25">
+        <v>1.014886581521264</v>
+      </c>
       <c r="E25">
-        <v>0.9463835801718017</v>
+        <v>0.9463835801718012</v>
+      </c>
+      <c r="F25">
+        <v>0.9710975518148626</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="I25">
+        <v>1.040024027048752</v>
+      </c>
+      <c r="J25">
+        <v>1.022441083191588</v>
+      </c>
+      <c r="K25">
+        <v>1.02725811568037</v>
+      </c>
       <c r="L25">
-        <v>0.9598754494005832</v>
+        <v>0.9598754494005829</v>
+      </c>
+      <c r="M25">
+        <v>0.9841617478414572</v>
+      </c>
+      <c r="N25">
+        <v>1.023893066805352</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_32/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_32/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.007018937165714</v>
+        <v>1.040358665670715</v>
       </c>
       <c r="D2">
-        <v>1.02161077617462</v>
+        <v>1.04111634972258</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.992614727750844</v>
       </c>
       <c r="F2">
-        <v>0.984243705708406</v>
+        <v>1.039110467293263</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043192999780185</v>
+        <v>1.0387933471537</v>
       </c>
       <c r="J2">
-        <v>1.028991720750826</v>
+        <v>1.045445701466658</v>
       </c>
       <c r="K2">
-        <v>1.032777029775771</v>
+        <v>1.043896775836738</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523335997</v>
       </c>
       <c r="M2">
-        <v>0.9959270045576148</v>
+        <v>1.041896586749309</v>
       </c>
       <c r="N2">
-        <v>1.030453007021292</v>
+        <v>1.046930354277038</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.013389275944097</v>
+        <v>1.041590619980354</v>
       </c>
       <c r="D3">
-        <v>1.026284658262169</v>
+        <v>1.042030268635444</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519299</v>
       </c>
       <c r="F3">
-        <v>0.9933412485006605</v>
+        <v>1.040970709757335</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045367308333261</v>
+        <v>1.039140116245409</v>
       </c>
       <c r="J3">
-        <v>1.033521473419785</v>
+        <v>1.046321830691545</v>
       </c>
       <c r="K3">
-        <v>1.036591915205334</v>
+        <v>1.044620985184027</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202687</v>
       </c>
       <c r="M3">
-        <v>1.004060044316475</v>
+        <v>1.043564212872685</v>
       </c>
       <c r="N3">
-        <v>1.034989192458611</v>
+        <v>1.047807727705919</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.017387325485718</v>
+        <v>1.042386276866131</v>
       </c>
       <c r="D4">
-        <v>1.029220566044311</v>
+        <v>1.042620391068494</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930998</v>
       </c>
       <c r="F4">
-        <v>0.9990418512923275</v>
+        <v>1.042172712801179</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046720034746877</v>
+        <v>1.039362619725574</v>
       </c>
       <c r="J4">
-        <v>1.036356481918119</v>
+        <v>1.046886753365978</v>
       </c>
       <c r="K4">
-        <v>1.038978665894529</v>
+        <v>1.04508772796542</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668347</v>
       </c>
       <c r="M4">
-        <v>1.009151854097047</v>
+        <v>1.044641166917071</v>
       </c>
       <c r="N4">
-        <v>1.037828226994193</v>
+        <v>1.048373452635346</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.019040026583453</v>
+        <v>1.042720417226907</v>
       </c>
       <c r="D5">
-        <v>1.030434739196314</v>
+        <v>1.042868183818819</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.994578699834602</v>
       </c>
       <c r="F5">
-        <v>1.001396627668477</v>
+        <v>1.042677640996318</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047276336527164</v>
+        <v>1.039455712058547</v>
       </c>
       <c r="J5">
-        <v>1.037526505887373</v>
+        <v>1.047123774147432</v>
       </c>
       <c r="K5">
-        <v>1.039963461824516</v>
+        <v>1.045283502309814</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.9971179600053012</v>
       </c>
       <c r="M5">
-        <v>1.011254047957043</v>
+        <v>1.045093424263281</v>
       </c>
       <c r="N5">
-        <v>1.038999912531687</v>
+        <v>1.048610810013497</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.019315919895294</v>
+        <v>1.042776500270203</v>
       </c>
       <c r="D6">
-        <v>1.030637456332757</v>
+        <v>1.04290977212027</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.994625531979634</v>
       </c>
       <c r="F6">
-        <v>1.001789632887123</v>
+        <v>1.042762397931232</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047369032037848</v>
+        <v>1.039471316443759</v>
       </c>
       <c r="J6">
-        <v>1.037721711307731</v>
+        <v>1.047163543377025</v>
       </c>
       <c r="K6">
-        <v>1.040127749783957</v>
+        <v>1.045316347719323</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673455</v>
       </c>
       <c r="M6">
-        <v>1.011604831701427</v>
+        <v>1.045169331614756</v>
       </c>
       <c r="N6">
-        <v>1.039195395166132</v>
+        <v>1.048650635719958</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.017409517270551</v>
+        <v>1.042390743049622</v>
       </c>
       <c r="D7">
-        <v>1.029236867432205</v>
+        <v>1.042623703241536</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.994303590798249</v>
       </c>
       <c r="F7">
-        <v>0.9990734764993464</v>
+        <v>1.0421794612085</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046727515997406</v>
+        <v>1.039363865388542</v>
       </c>
       <c r="J7">
-        <v>1.036372200063641</v>
+        <v>1.046889922301693</v>
       </c>
       <c r="K7">
-        <v>1.038991896622215</v>
+        <v>1.045090345653807</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462089</v>
       </c>
       <c r="M7">
-        <v>1.009180091491623</v>
+        <v>1.044647211929451</v>
       </c>
       <c r="N7">
-        <v>1.037843967461285</v>
+        <v>1.048376626071314</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.009198505344555</v>
+        <v>1.040775324165194</v>
       </c>
       <c r="D8">
-        <v>1.023209323299236</v>
+        <v>1.041425472424696</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674297</v>
       </c>
       <c r="F8">
-        <v>0.9873585708846397</v>
+        <v>1.039739504222716</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043939411475552</v>
+        <v>1.038910929591794</v>
       </c>
       <c r="J8">
-        <v>1.030543202208519</v>
+        <v>1.045742208252689</v>
       </c>
       <c r="K8">
-        <v>1.034083825631321</v>
+        <v>1.04414191468493</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.9958175282591056</v>
       </c>
       <c r="M8">
-        <v>0.9987125456360202</v>
+        <v>1.042460612890377</v>
       </c>
       <c r="N8">
-        <v>1.032006691760613</v>
+        <v>1.047227282136716</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9936998805435191</v>
+        <v>1.037917023504712</v>
       </c>
       <c r="D9">
-        <v>1.011856856865633</v>
+        <v>1.039304365040091</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923925</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>0.9651483817764873</v>
+        <v>1.035426412199712</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038581772695292</v>
+        <v>1.03809832510735</v>
       </c>
       <c r="J9">
-        <v>1.019477090766491</v>
+        <v>1.043704353483386</v>
       </c>
       <c r="K9">
-        <v>1.024760449915695</v>
+        <v>1.042456201099028</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832519</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>0.9788333980302399</v>
+        <v>1.038590862230567</v>
       </c>
       <c r="N9">
-        <v>1.020924865171037</v>
+        <v>1.045186533379895</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9825479684693281</v>
+        <v>1.036003269222071</v>
       </c>
       <c r="D10">
-        <v>1.003711303890498</v>
+        <v>1.037883588598688</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547282</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>0.9490602812019027</v>
+        <v>1.03254109103248</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034664135600478</v>
+        <v>1.037546743356596</v>
       </c>
       <c r="J10">
-        <v>1.011471533049778</v>
+        <v>1.042335146332432</v>
       </c>
       <c r="K10">
-        <v>1.018013871363114</v>
+        <v>1.041322470804481</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689357</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>0.9644144897882874</v>
+        <v>1.035999093572739</v>
       </c>
       <c r="N10">
-        <v>1.012907938644114</v>
+        <v>1.043815381797736</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9774909744797137</v>
+        <v>1.035172566926915</v>
       </c>
       <c r="D11">
-        <v>1.000024586353311</v>
+        <v>1.037266740469992</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016258</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>0.9417284350827597</v>
+        <v>1.031289182382354</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032873253068734</v>
+        <v>1.037305541283467</v>
       </c>
       <c r="J11">
-        <v>1.007831090224718</v>
+        <v>1.041739683037891</v>
       </c>
       <c r="K11">
-        <v>1.014946039026584</v>
+        <v>1.040829154351283</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>0.9578398045029889</v>
+        <v>1.0348738380289</v>
       </c>
       <c r="N11">
-        <v>1.009262325972679</v>
+        <v>1.043219072877017</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9755749391334346</v>
+        <v>1.034863694880323</v>
       </c>
       <c r="D12">
-        <v>0.998628927790923</v>
+        <v>1.03703736477211</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>0.9389438760644723</v>
+        <v>1.030823769905493</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032192592860413</v>
+        <v>1.03721559070134</v>
       </c>
       <c r="J12">
-        <v>1.00645023072647</v>
+        <v>1.04151810756901</v>
       </c>
       <c r="K12">
-        <v>1.013782442605473</v>
+        <v>1.040645549500897</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>0.9553423827680785</v>
+        <v>1.034455403026015</v>
       </c>
       <c r="N12">
-        <v>1.007879505495557</v>
+        <v>1.042997182745554</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.97598769799626</v>
+        <v>1.034929963218886</v>
       </c>
       <c r="D13">
-        <v>0.9989295289427021</v>
+        <v>1.037086578054592</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>0.939544053609095</v>
+        <v>1.030923620714904</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032339317768721</v>
+        <v>1.037234901616471</v>
       </c>
       <c r="J13">
-        <v>1.006747769761707</v>
+        <v>1.041565654166523</v>
       </c>
       <c r="K13">
-        <v>1.014033163311411</v>
+        <v>1.040684949953545</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>0.9558806886263765</v>
+        <v>1.034545180020637</v>
       </c>
       <c r="N13">
-        <v>1.008177467070351</v>
+        <v>1.04304479686469</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9773333834943196</v>
+        <v>1.035147041875115</v>
       </c>
       <c r="D14">
-        <v>0.9999097704670331</v>
+        <v>1.03724778534393</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>0.9414995504744893</v>
+        <v>1.031250719447835</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032817312441102</v>
+        <v>1.037298113244369</v>
       </c>
       <c r="J14">
-        <v>1.007717547877014</v>
+        <v>1.041721375605609</v>
       </c>
       <c r="K14">
-        <v>1.014850359680599</v>
+        <v>1.040813984989515</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>0.9576345298637979</v>
+        <v>1.034839259627486</v>
       </c>
       <c r="N14">
-        <v>1.009148622381818</v>
+        <v>1.043200739446081</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9781574078154411</v>
+        <v>1.035280749627127</v>
       </c>
       <c r="D15">
-        <v>1.00051017837433</v>
+        <v>1.037347077114647</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717475</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>0.9426960849081427</v>
+        <v>1.031452202588313</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03310973356419</v>
+        <v>1.037337012587413</v>
       </c>
       <c r="J15">
-        <v>1.00831118461436</v>
+        <v>1.041817268375134</v>
       </c>
       <c r="K15">
-        <v>1.015350605750118</v>
+        <v>1.040893439226399</v>
       </c>
       <c r="L15">
-        <v>0.9494987508767193</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>0.958707622498553</v>
+        <v>1.035020389745694</v>
       </c>
       <c r="N15">
-        <v>1.009743102151422</v>
+        <v>1.043296768394337</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9828785011392004</v>
+        <v>1.036058356777496</v>
       </c>
       <c r="D16">
-        <v>1.003952429733547</v>
+        <v>1.037924491825016</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>0.9495386568578512</v>
+        <v>1.032624121141496</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034780896773511</v>
+        <v>1.037562701151215</v>
       </c>
       <c r="J16">
-        <v>1.011709266463762</v>
+        <v>1.042374610315967</v>
       </c>
       <c r="K16">
-        <v>1.018214217557961</v>
+        <v>1.04135515960646</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175715</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>0.9648433990630909</v>
+        <v>1.036073708633488</v>
       </c>
       <c r="N16">
-        <v>1.013146009666816</v>
+        <v>1.043854901824655</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9857766060176817</v>
+        <v>1.036545579959269</v>
       </c>
       <c r="D17">
-        <v>1.006067421998059</v>
+        <v>1.038286246205445</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.9894763578477731</v>
       </c>
       <c r="F17">
-        <v>0.9537288206873765</v>
+        <v>1.033358542328158</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035803041853897</v>
+        <v>1.03770363522397</v>
       </c>
       <c r="J17">
-        <v>1.013792558592497</v>
+        <v>1.042723519816325</v>
       </c>
       <c r="K17">
-        <v>1.01996989715146</v>
+        <v>1.041644138225579</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068054</v>
+        <v>0.9930127773692701</v>
       </c>
       <c r="M17">
-        <v>0.9685998923663836</v>
+        <v>1.036733614096612</v>
       </c>
       <c r="N17">
-        <v>1.01523226030933</v>
+        <v>1.044204306816524</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9874452600485512</v>
+        <v>1.036829573192466</v>
       </c>
       <c r="D18">
-        <v>1.007285826938379</v>
+        <v>1.038497093210121</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215685</v>
+        <v>0.9897087662937551</v>
       </c>
       <c r="F18">
-        <v>0.9561380687468943</v>
+        <v>1.033786673221699</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036390214923871</v>
+        <v>1.037785611794157</v>
       </c>
       <c r="J18">
-        <v>1.014991107151446</v>
+        <v>1.042926783512722</v>
       </c>
       <c r="K18">
-        <v>1.020979971553717</v>
+        <v>1.041812462911748</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
+        <v>0.9932001317071766</v>
       </c>
       <c r="M18">
-        <v>0.9707594507471274</v>
+        <v>1.037118237024292</v>
       </c>
       <c r="N18">
-        <v>1.016432510944708</v>
+        <v>1.044407859170684</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9880106314906317</v>
+        <v>1.03692637453333</v>
       </c>
       <c r="D19">
-        <v>1.007698751212875</v>
+        <v>1.038568959877517</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>0.9897880325774039</v>
       </c>
       <c r="F19">
-        <v>0.9569538313059651</v>
+        <v>1.033932613775467</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03658892967702</v>
+        <v>1.037813525101041</v>
       </c>
       <c r="J19">
-        <v>1.015397035665657</v>
+        <v>1.042996049047088</v>
       </c>
       <c r="K19">
-        <v>1.021322066648674</v>
+        <v>1.041869818108093</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
+        <v>0.993264023964098</v>
       </c>
       <c r="M19">
-        <v>0.9714906088865644</v>
+        <v>1.037249334941687</v>
       </c>
       <c r="N19">
-        <v>1.01683901592397</v>
+        <v>1.044477223070054</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9854679405081188</v>
+        <v>1.036493325825517</v>
       </c>
       <c r="D20">
-        <v>1.005842094443674</v>
+        <v>1.038247449778411</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360677</v>
       </c>
       <c r="F20">
-        <v>0.9532828977911519</v>
+        <v>1.033279771295495</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035694317494456</v>
+        <v>1.037688537920705</v>
       </c>
       <c r="J20">
-        <v>1.0135707750461</v>
+        <v>1.042686110954875</v>
       </c>
       <c r="K20">
-        <v>1.019782989672768</v>
+        <v>1.041613157545669</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>0.9682001558363591</v>
+        <v>1.036662842456854</v>
       </c>
       <c r="N20">
-        <v>1.015010161804858</v>
+        <v>1.0441668448302</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9769381812458798</v>
+        <v>1.035083126293966</v>
       </c>
       <c r="D21">
-        <v>0.9996218581347769</v>
+        <v>1.037200320772411</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148894</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>0.9409254496641734</v>
+        <v>1.03115440813123</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032676992241951</v>
+        <v>1.037279508879822</v>
       </c>
       <c r="J21">
-        <v>1.00743278480297</v>
+        <v>1.041675530437801</v>
       </c>
       <c r="K21">
-        <v>1.014610398072967</v>
+        <v>1.040775997500071</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>0.957119642437845</v>
+        <v>1.03475267346118</v>
       </c>
       <c r="N21">
-        <v>1.008863454911546</v>
+        <v>1.043154829172876</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9713553528043354</v>
+        <v>1.034194668098884</v>
       </c>
       <c r="D22">
-        <v>0.9955577172300064</v>
+        <v>1.036540495890947</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>0.9327979594974898</v>
+        <v>1.029815798303067</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030689753622247</v>
+        <v>1.037020267168642</v>
       </c>
       <c r="J22">
-        <v>1.00340638325318</v>
+        <v>1.041037856860123</v>
       </c>
       <c r="K22">
-        <v>1.011217693275952</v>
+        <v>1.040247527059527</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>0.9498295703759623</v>
+        <v>1.033548977133296</v>
       </c>
       <c r="N22">
-        <v>1.00483133540972</v>
+        <v>1.042516250025576</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.97433700967544</v>
+        <v>1.034665830374104</v>
       </c>
       <c r="D23">
-        <v>0.9977275641198873</v>
+        <v>1.03689042067024</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794636464</v>
       </c>
       <c r="F23">
-        <v>0.9371427814759116</v>
+        <v>1.030525644813585</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03175223477438</v>
+        <v>1.037157892987555</v>
       </c>
       <c r="J23">
-        <v>1.005557637543681</v>
+        <v>1.041376117676024</v>
       </c>
       <c r="K23">
-        <v>1.013030314467036</v>
+        <v>1.040527881039524</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.9917760702887611</v>
       </c>
       <c r="M23">
-        <v>0.9537269082526777</v>
+        <v>1.034187339668256</v>
       </c>
       <c r="N23">
-        <v>1.006985644728066</v>
+        <v>1.042854991210634</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9856074801664702</v>
+        <v>1.036516937823805</v>
       </c>
       <c r="D24">
-        <v>1.00594395717787</v>
+        <v>1.038264980702371</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>0.9534844982456449</v>
+        <v>1.033315365288627</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035743473156114</v>
+        <v>1.037695360446163</v>
       </c>
       <c r="J24">
-        <v>1.013671040600203</v>
+        <v>1.042703015179045</v>
       </c>
       <c r="K24">
-        <v>1.01986748817952</v>
+        <v>1.04162715709684</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766441</v>
       </c>
       <c r="M24">
-        <v>0.968380876629842</v>
+        <v>1.036694822005404</v>
       </c>
       <c r="N24">
-        <v>1.015110569747548</v>
+        <v>1.044183773060307</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9978408354132844</v>
+        <v>1.038657386807605</v>
       </c>
       <c r="D25">
-        <v>1.014886581521264</v>
+        <v>1.039853888949609</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607051</v>
       </c>
       <c r="F25">
-        <v>0.9710975518148626</v>
+        <v>1.036543140532937</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040024027048752</v>
+        <v>1.038310129730297</v>
       </c>
       <c r="J25">
-        <v>1.022441083191588</v>
+        <v>1.044233043540729</v>
       </c>
       <c r="K25">
-        <v>1.02725811568037</v>
+        <v>1.042893732277294</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426416</v>
       </c>
       <c r="M25">
-        <v>0.9841617478414572</v>
+        <v>1.039593336167115</v>
       </c>
       <c r="N25">
-        <v>1.023893066805352</v>
+        <v>1.045715974237762</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_32/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_32/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.040358665670715</v>
+        <v>1.007018937165713</v>
       </c>
       <c r="D2">
-        <v>1.04111634972258</v>
+        <v>1.021610776174619</v>
       </c>
       <c r="E2">
-        <v>0.992614727750844</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.039110467293263</v>
+        <v>0.9842437057084045</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.0387933471537</v>
+        <v>1.043192999780185</v>
       </c>
       <c r="J2">
-        <v>1.045445701466658</v>
+        <v>1.028991720750825</v>
       </c>
       <c r="K2">
-        <v>1.043896775836738</v>
+        <v>1.032777029775771</v>
       </c>
       <c r="L2">
-        <v>0.9955398523335997</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.041896586749309</v>
+        <v>0.9959270045576133</v>
       </c>
       <c r="N2">
-        <v>1.046930354277038</v>
+        <v>1.030453007021291</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.041590619980354</v>
+        <v>1.013389275944097</v>
       </c>
       <c r="D3">
-        <v>1.042030268635444</v>
+        <v>1.026284658262168</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519299</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.040970709757335</v>
+        <v>0.9933412485006586</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039140116245409</v>
+        <v>1.04536730833326</v>
       </c>
       <c r="J3">
-        <v>1.046321830691545</v>
+        <v>1.033521473419784</v>
       </c>
       <c r="K3">
-        <v>1.044620985184027</v>
+        <v>1.036591915205334</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202687</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.043564212872685</v>
+        <v>1.004060044316473</v>
       </c>
       <c r="N3">
-        <v>1.047807727705919</v>
+        <v>1.03498919245861</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.042386276866131</v>
+        <v>1.017387325485717</v>
       </c>
       <c r="D4">
-        <v>1.042620391068494</v>
+        <v>1.029220566044311</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930998</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.042172712801179</v>
+        <v>0.9990418512923276</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039362619725574</v>
+        <v>1.046720034746877</v>
       </c>
       <c r="J4">
-        <v>1.046886753365978</v>
+        <v>1.036356481918119</v>
       </c>
       <c r="K4">
-        <v>1.04508772796542</v>
+        <v>1.038978665894529</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668347</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.044641166917071</v>
+        <v>1.009151854097047</v>
       </c>
       <c r="N4">
-        <v>1.048373452635346</v>
+        <v>1.037828226994193</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.042720417226907</v>
+        <v>1.019040026583454</v>
       </c>
       <c r="D5">
-        <v>1.042868183818819</v>
+        <v>1.030434739196314</v>
       </c>
       <c r="E5">
-        <v>0.994578699834602</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.042677640996318</v>
+        <v>1.001396627668477</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039455712058547</v>
+        <v>1.047276336527164</v>
       </c>
       <c r="J5">
-        <v>1.047123774147432</v>
+        <v>1.037526505887373</v>
       </c>
       <c r="K5">
-        <v>1.045283502309814</v>
+        <v>1.039963461824516</v>
       </c>
       <c r="L5">
-        <v>0.9971179600053012</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.045093424263281</v>
+        <v>1.011254047957043</v>
       </c>
       <c r="N5">
-        <v>1.048610810013497</v>
+        <v>1.038999912531687</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.042776500270203</v>
+        <v>1.019315919895293</v>
       </c>
       <c r="D6">
-        <v>1.04290977212027</v>
+        <v>1.030637456332756</v>
       </c>
       <c r="E6">
-        <v>0.994625531979634</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.042762397931232</v>
+        <v>1.001789632887121</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039471316443759</v>
+        <v>1.047369032037848</v>
       </c>
       <c r="J6">
-        <v>1.047163543377025</v>
+        <v>1.03772171130773</v>
       </c>
       <c r="K6">
-        <v>1.045316347719323</v>
+        <v>1.040127749783956</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673455</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.045169331614756</v>
+        <v>1.011604831701426</v>
       </c>
       <c r="N6">
-        <v>1.048650635719958</v>
+        <v>1.039195395166131</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.042390743049622</v>
+        <v>1.017409517270552</v>
       </c>
       <c r="D7">
-        <v>1.042623703241536</v>
+        <v>1.029236867432205</v>
       </c>
       <c r="E7">
-        <v>0.994303590798249</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.0421794612085</v>
+        <v>0.9990734764993464</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039363865388542</v>
+        <v>1.046727515997406</v>
       </c>
       <c r="J7">
-        <v>1.046889922301693</v>
+        <v>1.036372200063642</v>
       </c>
       <c r="K7">
-        <v>1.045090345653807</v>
+        <v>1.038991896622216</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462089</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.044647211929451</v>
+        <v>1.009180091491623</v>
       </c>
       <c r="N7">
-        <v>1.048376626071314</v>
+        <v>1.037843967461285</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.040775324165194</v>
+        <v>1.009198505344555</v>
       </c>
       <c r="D8">
-        <v>1.041425472424696</v>
+        <v>1.023209323299236</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674297</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.039739504222716</v>
+        <v>0.9873585708846395</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038910929591794</v>
+        <v>1.043939411475552</v>
       </c>
       <c r="J8">
-        <v>1.045742208252689</v>
+        <v>1.030543202208519</v>
       </c>
       <c r="K8">
-        <v>1.04414191468493</v>
+        <v>1.034083825631321</v>
       </c>
       <c r="L8">
-        <v>0.9958175282591056</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.042460612890377</v>
+        <v>0.9987125456360201</v>
       </c>
       <c r="N8">
-        <v>1.047227282136716</v>
+        <v>1.032006691760613</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.037917023504712</v>
+        <v>0.9936998805435171</v>
       </c>
       <c r="D9">
-        <v>1.039304365040091</v>
+        <v>1.011856856865632</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419923921</v>
       </c>
       <c r="F9">
-        <v>1.035426412199712</v>
+        <v>0.965148381776485</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03809832510735</v>
+        <v>1.038581772695291</v>
       </c>
       <c r="J9">
-        <v>1.043704353483386</v>
+        <v>1.01947709076649</v>
       </c>
       <c r="K9">
-        <v>1.042456201099028</v>
+        <v>1.024760449915694</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208832515</v>
       </c>
       <c r="M9">
-        <v>1.038590862230567</v>
+        <v>0.9788333980302378</v>
       </c>
       <c r="N9">
-        <v>1.045186533379895</v>
+        <v>1.020924865171035</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.036003269222071</v>
+        <v>0.9825479684693269</v>
       </c>
       <c r="D10">
-        <v>1.037883588598688</v>
+        <v>1.003711303890497</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547276</v>
       </c>
       <c r="F10">
-        <v>1.03254109103248</v>
+        <v>0.9490602812019011</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037546743356596</v>
+        <v>1.034664135600477</v>
       </c>
       <c r="J10">
-        <v>1.042335146332432</v>
+        <v>1.011471533049777</v>
       </c>
       <c r="K10">
-        <v>1.041322470804481</v>
+        <v>1.018013871363113</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689353</v>
       </c>
       <c r="M10">
-        <v>1.035999093572739</v>
+        <v>0.964414489788286</v>
       </c>
       <c r="N10">
-        <v>1.043815381797736</v>
+        <v>1.012907938644114</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C11">
-        <v>1.035172566926915</v>
+        <v>0.9774909744797129</v>
       </c>
       <c r="D11">
-        <v>1.037266740469992</v>
+        <v>1.00002458635331</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016261</v>
       </c>
       <c r="F11">
-        <v>1.031289182382354</v>
+        <v>0.9417284350827589</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037305541283467</v>
+        <v>1.032873253068734</v>
       </c>
       <c r="J11">
-        <v>1.041739683037891</v>
+        <v>1.007831090224717</v>
       </c>
       <c r="K11">
-        <v>1.040829154351283</v>
+        <v>1.014946039026583</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416576</v>
       </c>
       <c r="M11">
-        <v>1.0348738380289</v>
+        <v>0.9578398045029881</v>
       </c>
       <c r="N11">
-        <v>1.043219072877017</v>
+        <v>1.009262325972678</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.034863694880323</v>
+        <v>0.9755749391334352</v>
       </c>
       <c r="D12">
-        <v>1.03703736477211</v>
+        <v>0.9986289277909237</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411973</v>
       </c>
       <c r="F12">
-        <v>1.030823769905493</v>
+        <v>0.9389438760644729</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03721559070134</v>
+        <v>1.032192592860413</v>
       </c>
       <c r="J12">
-        <v>1.04151810756901</v>
+        <v>1.006450230726471</v>
       </c>
       <c r="K12">
-        <v>1.040645549500897</v>
+        <v>1.013782442605474</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252508</v>
       </c>
       <c r="M12">
-        <v>1.034455403026015</v>
+        <v>0.9553423827680791</v>
       </c>
       <c r="N12">
-        <v>1.042997182745554</v>
+        <v>1.007879505495558</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.034929963218886</v>
+        <v>0.9759876979962587</v>
       </c>
       <c r="D13">
-        <v>1.037086578054592</v>
+        <v>0.9989295289427009</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>1.030923620714904</v>
+        <v>0.9395440536090937</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037234901616471</v>
+        <v>1.03233931776872</v>
       </c>
       <c r="J13">
-        <v>1.041565654166523</v>
+        <v>1.006747769761706</v>
       </c>
       <c r="K13">
-        <v>1.040684949953545</v>
+        <v>1.01403316331141</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.034545180020637</v>
+        <v>0.9558806886263752</v>
       </c>
       <c r="N13">
-        <v>1.04304479686469</v>
+        <v>1.00817746707035</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.035147041875115</v>
+        <v>0.9773333834943196</v>
       </c>
       <c r="D14">
-        <v>1.03724778534393</v>
+        <v>0.9999097704670331</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194313</v>
       </c>
       <c r="F14">
-        <v>1.031250719447835</v>
+        <v>0.9414995504744899</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037298113244369</v>
+        <v>1.032817312441102</v>
       </c>
       <c r="J14">
-        <v>1.041721375605609</v>
+        <v>1.007717547877014</v>
       </c>
       <c r="K14">
-        <v>1.040813984989515</v>
+        <v>1.014850359680599</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.9490745509764514</v>
       </c>
       <c r="M14">
-        <v>1.034839259627486</v>
+        <v>0.9576345298637986</v>
       </c>
       <c r="N14">
-        <v>1.043200739446081</v>
+        <v>1.009148622381818</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.035280749627127</v>
+        <v>0.9781574078154409</v>
       </c>
       <c r="D15">
-        <v>1.037347077114647</v>
+        <v>1.00051017837433</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050717477</v>
       </c>
       <c r="F15">
-        <v>1.031452202588313</v>
+        <v>0.9426960849081423</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037337012587413</v>
+        <v>1.03310973356419</v>
       </c>
       <c r="J15">
-        <v>1.041817268375134</v>
+        <v>1.00831118461436</v>
       </c>
       <c r="K15">
-        <v>1.040893439226399</v>
+        <v>1.015350605750118</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508767195</v>
       </c>
       <c r="M15">
-        <v>1.035020389745694</v>
+        <v>0.958707622498553</v>
       </c>
       <c r="N15">
-        <v>1.043296768394337</v>
+        <v>1.009743102151421</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.036058356777496</v>
+        <v>0.9828785011392015</v>
       </c>
       <c r="D16">
-        <v>1.037924491825016</v>
+        <v>1.003952429733548</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017262</v>
       </c>
       <c r="F16">
-        <v>1.032624121141496</v>
+        <v>0.9495386568578522</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037562701151215</v>
+        <v>1.034780896773511</v>
       </c>
       <c r="J16">
-        <v>1.042374610315967</v>
+        <v>1.011709266463763</v>
       </c>
       <c r="K16">
-        <v>1.04135515960646</v>
+        <v>1.018214217557962</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175719</v>
       </c>
       <c r="M16">
-        <v>1.036073708633488</v>
+        <v>0.9648433990630918</v>
       </c>
       <c r="N16">
-        <v>1.043854901824655</v>
+        <v>1.013146009666817</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.036545579959269</v>
+        <v>0.9857766060176809</v>
       </c>
       <c r="D17">
-        <v>1.038286246205445</v>
+        <v>1.006067421998059</v>
       </c>
       <c r="E17">
-        <v>0.9894763578477731</v>
+        <v>0.938276015685567</v>
       </c>
       <c r="F17">
-        <v>1.033358542328158</v>
+        <v>0.9537288206873753</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03770363522397</v>
+        <v>1.035803041853896</v>
       </c>
       <c r="J17">
-        <v>1.042723519816325</v>
+        <v>1.013792558592496</v>
       </c>
       <c r="K17">
-        <v>1.041644138225579</v>
+        <v>1.019969897151459</v>
       </c>
       <c r="L17">
-        <v>0.9930127773692701</v>
+        <v>0.9534603602068051</v>
       </c>
       <c r="M17">
-        <v>1.036733614096612</v>
+        <v>0.9685998923663824</v>
       </c>
       <c r="N17">
-        <v>1.044204306816524</v>
+        <v>1.015232260309329</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.036829573192466</v>
+        <v>0.9874452600485504</v>
       </c>
       <c r="D18">
-        <v>1.038497093210121</v>
+        <v>1.007285826938378</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937551</v>
+        <v>0.9393832867215681</v>
       </c>
       <c r="F18">
-        <v>1.033786673221699</v>
+        <v>0.9561380687468936</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037785611794157</v>
+        <v>1.03639021492387</v>
       </c>
       <c r="J18">
-        <v>1.042926783512722</v>
+        <v>1.014991107151445</v>
       </c>
       <c r="K18">
-        <v>1.041812462911748</v>
+        <v>1.020979971553717</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071766</v>
+        <v>0.9543373515865724</v>
       </c>
       <c r="M18">
-        <v>1.037118237024292</v>
+        <v>0.9707594507471267</v>
       </c>
       <c r="N18">
-        <v>1.044407859170684</v>
+        <v>1.016432510944708</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.03692637453333</v>
+        <v>0.9880106314906321</v>
       </c>
       <c r="D19">
-        <v>1.038568959877517</v>
+        <v>1.007698751212875</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774039</v>
+        <v>0.9397594814684961</v>
       </c>
       <c r="F19">
-        <v>1.033932613775467</v>
+        <v>0.9569538313059655</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037813525101041</v>
+        <v>1.03658892967702</v>
       </c>
       <c r="J19">
-        <v>1.042996049047088</v>
+        <v>1.015397035665658</v>
       </c>
       <c r="K19">
-        <v>1.041869818108093</v>
+        <v>1.021322066648675</v>
       </c>
       <c r="L19">
-        <v>0.993264023964098</v>
+        <v>0.9546352493816586</v>
       </c>
       <c r="M19">
-        <v>1.037249334941687</v>
+        <v>0.9714906088865648</v>
       </c>
       <c r="N19">
-        <v>1.044477223070054</v>
+        <v>1.01683901592397</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.036493325825517</v>
+        <v>0.985467940508119</v>
       </c>
       <c r="D20">
-        <v>1.038247449778411</v>
+        <v>1.005842094443675</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360677</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.033279771295495</v>
+        <v>0.9532828977911524</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037688537920705</v>
+        <v>1.035694317494456</v>
       </c>
       <c r="J20">
-        <v>1.042686110954875</v>
+        <v>1.013570775046101</v>
       </c>
       <c r="K20">
-        <v>1.041613157545669</v>
+        <v>1.019782989672768</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.036662842456854</v>
+        <v>0.9682001558363597</v>
       </c>
       <c r="N20">
-        <v>1.0441668448302</v>
+        <v>1.015010161804859</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.035083126293966</v>
+        <v>0.9769381812458808</v>
       </c>
       <c r="D21">
-        <v>1.037200320772411</v>
+        <v>0.9996218581347777</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>1.03115440813123</v>
+        <v>0.9409254496641745</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037279508879822</v>
+        <v>1.032676992241951</v>
       </c>
       <c r="J21">
-        <v>1.041675530437801</v>
+        <v>1.007432784802971</v>
       </c>
       <c r="K21">
-        <v>1.040775997500071</v>
+        <v>1.014610398072968</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981064</v>
       </c>
       <c r="M21">
-        <v>1.03475267346118</v>
+        <v>0.9571196424378459</v>
       </c>
       <c r="N21">
-        <v>1.043154829172876</v>
+        <v>1.008863454911547</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.034194668098884</v>
+        <v>0.9713553528043357</v>
       </c>
       <c r="D22">
-        <v>1.036540495890947</v>
+        <v>0.9955577172300065</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>1.029815798303067</v>
+        <v>0.9327979594974893</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037020267168642</v>
+        <v>1.030689753622247</v>
       </c>
       <c r="J22">
-        <v>1.041037856860123</v>
+        <v>1.00340638325318</v>
       </c>
       <c r="K22">
-        <v>1.040247527059527</v>
+        <v>1.011217693275953</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>1.033548977133296</v>
+        <v>0.9498295703759622</v>
       </c>
       <c r="N22">
-        <v>1.042516250025576</v>
+        <v>1.00483133540972</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.034665830374104</v>
+        <v>0.9743370096754411</v>
       </c>
       <c r="D23">
-        <v>1.03689042067024</v>
+        <v>0.9977275641198877</v>
       </c>
       <c r="E23">
-        <v>0.9879432794636464</v>
+        <v>0.9308081199963312</v>
       </c>
       <c r="F23">
-        <v>1.030525644813585</v>
+        <v>0.9371427814759126</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037157892987555</v>
+        <v>1.031752234774381</v>
       </c>
       <c r="J23">
-        <v>1.041376117676024</v>
+        <v>1.005557637543682</v>
       </c>
       <c r="K23">
-        <v>1.040527881039524</v>
+        <v>1.013030314467037</v>
       </c>
       <c r="L23">
-        <v>0.9917760702887611</v>
+        <v>0.9475391330285317</v>
       </c>
       <c r="M23">
-        <v>1.034187339668256</v>
+        <v>0.9537269082526787</v>
       </c>
       <c r="N23">
-        <v>1.042854991210634</v>
+        <v>1.006985644728067</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.036516937823805</v>
+        <v>0.985607480166471</v>
       </c>
       <c r="D24">
-        <v>1.038264980702371</v>
+        <v>1.00594395717787</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.938164042401182</v>
       </c>
       <c r="F24">
-        <v>1.033315365288627</v>
+        <v>0.953484498245645</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037695360446163</v>
+        <v>1.035743473156114</v>
       </c>
       <c r="J24">
-        <v>1.042703015179045</v>
+        <v>1.013671040600203</v>
       </c>
       <c r="K24">
-        <v>1.04162715709684</v>
+        <v>1.01986748817952</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766441</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.036694822005404</v>
+        <v>0.9683808766298418</v>
       </c>
       <c r="N24">
-        <v>1.044183773060307</v>
+        <v>1.015110569747549</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.038657386807605</v>
+        <v>0.9978408354132852</v>
       </c>
       <c r="D25">
-        <v>1.039853888949609</v>
+        <v>1.014886581521265</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607051</v>
+        <v>0.9463835801718021</v>
       </c>
       <c r="F25">
-        <v>1.036543140532937</v>
+        <v>0.9710975518148639</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038310129730297</v>
+        <v>1.040024027048753</v>
       </c>
       <c r="J25">
-        <v>1.044233043540729</v>
+        <v>1.02244108319159</v>
       </c>
       <c r="K25">
-        <v>1.042893732277294</v>
+        <v>1.02725811568037</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426416</v>
+        <v>0.9598754494005834</v>
       </c>
       <c r="M25">
-        <v>1.039593336167115</v>
+        <v>0.9841617478414584</v>
       </c>
       <c r="N25">
-        <v>1.045715974237762</v>
+        <v>1.023893066805353</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_32/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_32/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.007018937165713</v>
+        <v>1.007575265678367</v>
       </c>
       <c r="D2">
-        <v>1.021610776174619</v>
+        <v>1.029641856789488</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680758</v>
+        <v>0.9527101846680762</v>
       </c>
       <c r="F2">
-        <v>0.9842437057084045</v>
+        <v>1.033112178738131</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043192999780185</v>
+        <v>1.051561765021667</v>
       </c>
       <c r="J2">
-        <v>1.028991720750825</v>
+        <v>1.029531738717242</v>
       </c>
       <c r="K2">
-        <v>1.032777029775771</v>
+        <v>1.04070311979323</v>
       </c>
       <c r="L2">
-        <v>0.964870170840339</v>
+        <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>0.9959270045576133</v>
+        <v>1.044128705648548</v>
       </c>
       <c r="N2">
-        <v>1.030453007021291</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.013534220926892</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.043497294889876</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.039850911793608</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.013389275944097</v>
+        <v>1.01199237917304</v>
       </c>
       <c r="D3">
-        <v>1.026284658262168</v>
+        <v>1.032602150351956</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057846</v>
+        <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>0.9933412485006586</v>
+        <v>1.036153218237991</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04536730833326</v>
+        <v>1.052574042704091</v>
       </c>
       <c r="J3">
-        <v>1.033521473419784</v>
+        <v>1.032161374160804</v>
       </c>
       <c r="K3">
-        <v>1.036591915205334</v>
+        <v>1.042834205777719</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474063</v>
+        <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.004060044316473</v>
+        <v>1.046343501053631</v>
       </c>
       <c r="N3">
-        <v>1.03498919245861</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.014432033359656</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.045250147602277</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.041355111752635</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.017387325485717</v>
+        <v>1.014792442493765</v>
       </c>
       <c r="D4">
-        <v>1.029220566044311</v>
+        <v>1.034480833160786</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088611</v>
+        <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>0.9990418512923276</v>
+        <v>1.038087877350727</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046720034746877</v>
+        <v>1.053201548526361</v>
       </c>
       <c r="J4">
-        <v>1.036356481918119</v>
+        <v>1.033825178545687</v>
       </c>
       <c r="K4">
-        <v>1.038978665894529</v>
+        <v>1.044180180770104</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952755</v>
+        <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.009151854097047</v>
+        <v>1.047747360572768</v>
       </c>
       <c r="N4">
-        <v>1.037828226994193</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.015000211650624</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.046361200186031</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.042307721329552</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.019040026583454</v>
+        <v>1.015960804441189</v>
       </c>
       <c r="D5">
-        <v>1.030434739196314</v>
+        <v>1.035266907262874</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769892</v>
+        <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.001396627668477</v>
+        <v>1.038897173829845</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047276336527164</v>
+        <v>1.053461344966198</v>
       </c>
       <c r="J5">
-        <v>1.037526505887373</v>
+        <v>1.034520407178951</v>
       </c>
       <c r="K5">
-        <v>1.039963461824516</v>
+        <v>1.044743127526451</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702914</v>
+        <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.011254047957043</v>
+        <v>1.048334344248986</v>
       </c>
       <c r="N5">
-        <v>1.038999912531687</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.015238805081513</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.0468257545256</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.042712914735712</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.019315919895293</v>
+        <v>1.016161859999654</v>
       </c>
       <c r="D6">
-        <v>1.030637456332756</v>
+        <v>1.035404286568881</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017083</v>
+        <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.001789632887121</v>
+        <v>1.039037054025321</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047369032037848</v>
+        <v>1.053507586511164</v>
       </c>
       <c r="J6">
-        <v>1.03772171130773</v>
+        <v>1.034642155373419</v>
       </c>
       <c r="K6">
-        <v>1.040127749783956</v>
+        <v>1.044843029768311</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965043</v>
+        <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.011604831701426</v>
+        <v>1.048436900057089</v>
       </c>
       <c r="N6">
-        <v>1.039195395166131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.015281985345848</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.046906919862897</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.042792265667265</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.017409517270552</v>
+        <v>1.014823339443945</v>
       </c>
       <c r="D7">
-        <v>1.029236867432205</v>
+        <v>1.034507180022105</v>
       </c>
       <c r="E7">
         <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>0.9990734764993464</v>
+        <v>1.038110647447836</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046727515997406</v>
+        <v>1.053213087173101</v>
       </c>
       <c r="J7">
-        <v>1.036372200063642</v>
+        <v>1.033849361015772</v>
       </c>
       <c r="K7">
-        <v>1.038991896622216</v>
+        <v>1.044203367381282</v>
       </c>
       <c r="L7">
         <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.009180091491623</v>
+        <v>1.047767025525966</v>
       </c>
       <c r="N7">
-        <v>1.037843967461285</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.0150123196176</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.046376763552611</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.042344158603768</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.009198505344555</v>
+        <v>1.009099472730893</v>
       </c>
       <c r="D8">
-        <v>1.023209323299236</v>
+        <v>1.030669694826855</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922295</v>
+        <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>0.9873585708846395</v>
+        <v>1.034161741947383</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043939411475552</v>
+        <v>1.051919598004734</v>
       </c>
       <c r="J8">
-        <v>1.030543202208519</v>
+        <v>1.030446971567532</v>
       </c>
       <c r="K8">
-        <v>1.034083825631321</v>
+        <v>1.041449653047383</v>
       </c>
       <c r="L8">
-        <v>0.9660706434537708</v>
+        <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>0.9987125456360201</v>
+        <v>1.044898030037122</v>
       </c>
       <c r="N8">
-        <v>1.032006691760613</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.013851694843065</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.044106160789463</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.040401628911783</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9936998805435171</v>
+        <v>0.9985211423865412</v>
       </c>
       <c r="D9">
-        <v>1.011856856865632</v>
+        <v>1.023588527851807</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923921</v>
+        <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>0.965148381776485</v>
+        <v>1.026919453882892</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038581772695291</v>
+        <v>1.049411437818164</v>
       </c>
       <c r="J9">
-        <v>1.01947709076649</v>
+        <v>1.024126231227343</v>
       </c>
       <c r="K9">
-        <v>1.024760449915694</v>
+        <v>1.036310148898421</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832515</v>
+        <v>0.9576541208834081</v>
       </c>
       <c r="M9">
-        <v>0.9788333980302378</v>
+        <v>1.039590374096971</v>
       </c>
       <c r="N9">
-        <v>1.020924865171035</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.011690083888653</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.039905515716986</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.036764486247409</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,81 +857,105 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9825479684693269</v>
+        <v>0.9912106180072695</v>
       </c>
       <c r="D10">
-        <v>1.003711303890497</v>
+        <v>1.018735101086203</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547276</v>
+        <v>0.9361465105547284</v>
       </c>
       <c r="F10">
-        <v>0.9490602812019011</v>
+        <v>1.022034703936644</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034664135600477</v>
+        <v>1.047627658787045</v>
       </c>
       <c r="J10">
-        <v>1.011471533049777</v>
+        <v>1.019777351892434</v>
       </c>
       <c r="K10">
-        <v>1.018013871363113</v>
+        <v>1.032774130814115</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689353</v>
+        <v>0.9517730114689358</v>
       </c>
       <c r="M10">
-        <v>0.964414489788286</v>
+        <v>1.036017194545962</v>
       </c>
       <c r="N10">
-        <v>1.012907938644114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.010223368520407</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.037129098496859</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.034281114238611</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9774909744797129</v>
+        <v>0.9886303395808218</v>
       </c>
       <c r="D11">
-        <v>1.00002458635331</v>
+        <v>1.017198043611132</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016261</v>
+        <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>0.9417284350827589</v>
+        <v>1.020936132082612</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032873253068734</v>
+        <v>1.047130256584511</v>
       </c>
       <c r="J11">
-        <v>1.007831090224717</v>
+        <v>1.018483880189723</v>
       </c>
       <c r="K11">
-        <v>1.014946039026583</v>
+        <v>1.03180275796242</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416576</v>
+        <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>0.9578398045029881</v>
+        <v>1.035473736736218</v>
       </c>
       <c r="N11">
-        <v>1.009262325972678</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.009938751231761</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.037135897508028</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.033627207114191</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9755749391334352</v>
+        <v>0.9878599348272272</v>
       </c>
       <c r="D12">
-        <v>0.9986289277909237</v>
+        <v>1.016803338750089</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411973</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>0.9389438760644729</v>
+        <v>1.020874803505978</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032192592860413</v>
+        <v>1.047032928032947</v>
       </c>
       <c r="J12">
-        <v>1.006450230726471</v>
+        <v>1.018187121306548</v>
       </c>
       <c r="K12">
-        <v>1.013782442605474</v>
+        <v>1.031615541816471</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252508</v>
+        <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>0.9553423827680791</v>
+        <v>1.035612712687061</v>
       </c>
       <c r="N12">
-        <v>1.007879505495558</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.009946378603177</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.037572624018653</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.033494838790665</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9759876979962587</v>
+        <v>0.9884595957204642</v>
       </c>
       <c r="D13">
-        <v>0.9989295289427009</v>
+        <v>1.017288617164356</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9318723593367009</v>
       </c>
       <c r="F13">
-        <v>0.9395440536090937</v>
+        <v>1.021639847080894</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03233931776872</v>
+        <v>1.047256422537179</v>
       </c>
       <c r="J13">
-        <v>1.006747769761706</v>
+        <v>1.018666085494366</v>
       </c>
       <c r="K13">
-        <v>1.01403316331141</v>
+        <v>1.032048976474668</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965214</v>
+        <v>0.9483836088964247</v>
       </c>
       <c r="M13">
-        <v>0.9558806886263752</v>
+        <v>1.036321199030593</v>
       </c>
       <c r="N13">
-        <v>1.00817746707035</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.010194415847491</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.038409727244778</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.033798795341111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9773333834943196</v>
+        <v>0.9894953270658086</v>
       </c>
       <c r="D14">
-        <v>0.9999097704670331</v>
+        <v>1.018023552993997</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194313</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>0.9414995504744899</v>
+        <v>1.02254559277659</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032817312441102</v>
+        <v>1.047556169283066</v>
       </c>
       <c r="J14">
-        <v>1.007717547877014</v>
+        <v>1.019348026882261</v>
       </c>
       <c r="K14">
-        <v>1.014850359680599</v>
+        <v>1.032629925978948</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764514</v>
+        <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>0.9576345298637986</v>
+        <v>1.037070927445283</v>
       </c>
       <c r="N14">
-        <v>1.009148622381818</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.010474055754987</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.039175789842173</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.034210973838338</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9781574078154409</v>
+        <v>0.9900582197244625</v>
       </c>
       <c r="D15">
-        <v>1.00051017837433</v>
+        <v>1.018407624845482</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717477</v>
+        <v>0.9332781050717475</v>
       </c>
       <c r="F15">
-        <v>0.9426960849081423</v>
+        <v>1.022966812239798</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03310973356419</v>
+        <v>1.047705895466694</v>
       </c>
       <c r="J15">
-        <v>1.00831118461436</v>
+        <v>1.019696886154472</v>
       </c>
       <c r="K15">
-        <v>1.015350605750118</v>
+        <v>1.032920506143131</v>
       </c>
       <c r="L15">
-        <v>0.9494987508767195</v>
+        <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>0.958707622498553</v>
+        <v>1.037398630138192</v>
       </c>
       <c r="N15">
-        <v>1.009743102151421</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.010601855603629</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.039472356177942</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.034422302567542</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9828785011392015</v>
+        <v>0.9930588964422189</v>
       </c>
       <c r="D16">
-        <v>1.003952429733548</v>
+        <v>1.020390398392276</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017262</v>
+        <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>0.9495386568578522</v>
+        <v>1.024933828148854</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034780896773511</v>
+        <v>1.048446423867596</v>
       </c>
       <c r="J16">
-        <v>1.011709266463763</v>
+        <v>1.021472962070382</v>
       </c>
       <c r="K16">
-        <v>1.018214217557962</v>
+        <v>1.034365379027045</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175719</v>
+        <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>0.9648433990630918</v>
+        <v>1.038831629449378</v>
       </c>
       <c r="N16">
-        <v>1.013146009666817</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.01118488592773</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.040566271987505</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.035447046366976</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9857766060176809</v>
+        <v>0.9948202100268644</v>
       </c>
       <c r="D17">
-        <v>1.006067421998059</v>
+        <v>1.02152810651122</v>
       </c>
       <c r="E17">
         <v>0.938276015685567</v>
       </c>
       <c r="F17">
-        <v>0.9537288206873753</v>
+        <v>1.025964433431227</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035803041853896</v>
+        <v>1.048854470234004</v>
       </c>
       <c r="J17">
-        <v>1.013792558592496</v>
+        <v>1.02247890554964</v>
       </c>
       <c r="K17">
-        <v>1.019969897151459</v>
+        <v>1.035168913158481</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>0.9685998923663824</v>
+        <v>1.039532028833399</v>
       </c>
       <c r="N17">
-        <v>1.015232260309329</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.01148695958422</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.040990848149421</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.036017760986027</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9874452600485504</v>
+        <v>0.9956476717221308</v>
       </c>
       <c r="D18">
-        <v>1.007285826938378</v>
+        <v>1.022006475934553</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215681</v>
+        <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>0.9561380687468936</v>
+        <v>1.026222028674144</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03639021492387</v>
+        <v>1.048997658598396</v>
       </c>
       <c r="J18">
-        <v>1.014991107151445</v>
+        <v>1.022876119166131</v>
       </c>
       <c r="K18">
-        <v>1.020979971553717</v>
+        <v>1.035455861211169</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865724</v>
+        <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>0.9707594507471267</v>
+        <v>1.039602982370936</v>
       </c>
       <c r="N18">
-        <v>1.016432510944708</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.011551880064849</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.04080925402397</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.036209002844982</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9880106314906321</v>
+        <v>0.9956115593342105</v>
       </c>
       <c r="D19">
-        <v>1.007698751212875</v>
+        <v>1.021875925058025</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684961</v>
+        <v>0.939759481468009</v>
       </c>
       <c r="F19">
-        <v>0.9569538313059655</v>
+        <v>1.025761080325084</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03658892967702</v>
+        <v>1.048897596489093</v>
       </c>
       <c r="J19">
-        <v>1.015397035665658</v>
+        <v>1.022705784567056</v>
       </c>
       <c r="K19">
-        <v>1.021322066648675</v>
+        <v>1.035264863213264</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816586</v>
+        <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>0.9714906088865648</v>
+        <v>1.039087240083007</v>
       </c>
       <c r="N19">
-        <v>1.01683901592397</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.011398143901109</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.040075919921985</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.036080357830946</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.985467940508119</v>
+        <v>0.9931507075745023</v>
       </c>
       <c r="D20">
-        <v>1.005842094443675</v>
+        <v>1.020036005415717</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9380716924660139</v>
       </c>
       <c r="F20">
-        <v>0.9532828977911524</v>
+        <v>1.023335271024994</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035694317494456</v>
+        <v>1.048117297418508</v>
       </c>
       <c r="J20">
-        <v>1.013570775046101</v>
+        <v>1.020948235318071</v>
       </c>
       <c r="K20">
-        <v>1.019782989672768</v>
+        <v>1.033735463303874</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>0.9682001558363597</v>
+        <v>1.036979843662874</v>
       </c>
       <c r="N20">
-        <v>1.015010161804859</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.010630457260829</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.037880368941348</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.035002942835895</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9769381812458808</v>
+        <v>0.987505328132615</v>
       </c>
       <c r="D21">
-        <v>0.9996218581347777</v>
+        <v>1.016258871445817</v>
       </c>
       <c r="E21">
         <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>0.9409254496641745</v>
+        <v>1.019458095714456</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032676992241951</v>
+        <v>1.046685104834964</v>
       </c>
       <c r="J21">
-        <v>1.007432784802971</v>
+        <v>1.017534897116656</v>
       </c>
       <c r="K21">
-        <v>1.014610398072968</v>
+        <v>1.030938625531241</v>
       </c>
       <c r="L21">
         <v>0.9488714019981064</v>
       </c>
       <c r="M21">
-        <v>0.9571196424378459</v>
+        <v>1.034079973291719</v>
       </c>
       <c r="N21">
-        <v>1.008863454911547</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.009449341055412</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.035544386048159</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.033028714181724</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9713553528043357</v>
+        <v>0.9838976998472163</v>
       </c>
       <c r="D22">
-        <v>0.9955577172300065</v>
+        <v>1.013855821869349</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651161</v>
+        <v>0.928897295365116</v>
       </c>
       <c r="F22">
-        <v>0.9327979594974893</v>
+        <v>1.017028766157465</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030689753622247</v>
+        <v>1.045761423205812</v>
       </c>
       <c r="J22">
-        <v>1.00340638325318</v>
+        <v>1.015361277091291</v>
       </c>
       <c r="K22">
-        <v>1.011217693275953</v>
+        <v>1.029157700397164</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572517</v>
+        <v>0.9460223821572515</v>
       </c>
       <c r="M22">
-        <v>0.9498295703759622</v>
+        <v>1.03227026319201</v>
       </c>
       <c r="N22">
-        <v>1.00483133540972</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.008701525790272</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.034112110453487</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.031755982515557</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9743370096754411</v>
+        <v>0.9858039079403959</v>
       </c>
       <c r="D23">
-        <v>0.9977275641198877</v>
+        <v>1.015120370112794</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963312</v>
+        <v>0.9308081199963315</v>
       </c>
       <c r="F23">
-        <v>0.9371427814759126</v>
+        <v>1.018310202868114</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031752234774381</v>
+        <v>1.046247201187614</v>
       </c>
       <c r="J23">
-        <v>1.005557637543682</v>
+        <v>1.016504815673424</v>
       </c>
       <c r="K23">
-        <v>1.013030314467037</v>
+        <v>1.030092108276265</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285317</v>
+        <v>0.9475391330285319</v>
       </c>
       <c r="M23">
-        <v>0.9537269082526787</v>
+        <v>1.033222832730368</v>
       </c>
       <c r="N23">
-        <v>1.006985644728067</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.009090642706397</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.034866011731755</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.032406987963575</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.985607480166471</v>
+        <v>0.9931537972133848</v>
       </c>
       <c r="D24">
-        <v>1.00594395717787</v>
+        <v>1.020013816404011</v>
       </c>
       <c r="E24">
-        <v>0.938164042401182</v>
+        <v>0.9381640424011828</v>
       </c>
       <c r="F24">
-        <v>0.953484498245645</v>
+        <v>1.023274499311822</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035743473156114</v>
+        <v>1.048097870827546</v>
       </c>
       <c r="J24">
-        <v>1.013671040600203</v>
+        <v>1.02091795715203</v>
       </c>
       <c r="K24">
-        <v>1.01986748817952</v>
+        <v>1.033698352222055</v>
       </c>
       <c r="L24">
-        <v>0.953371659644254</v>
+        <v>0.9533716596442545</v>
       </c>
       <c r="M24">
-        <v>0.9683808766298418</v>
+        <v>1.03690485556788</v>
       </c>
       <c r="N24">
-        <v>1.015110569747549</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.010599683054348</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.037780102956644</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.034949266385052</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9978408354132852</v>
+        <v>1.001339180295502</v>
       </c>
       <c r="D25">
-        <v>1.014886581521265</v>
+        <v>1.025480598243482</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718021</v>
+        <v>0.9463835801718012</v>
       </c>
       <c r="F25">
-        <v>0.9710975518148639</v>
+        <v>1.02884364478398</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040024027048753</v>
+        <v>1.050098869172385</v>
       </c>
       <c r="J25">
-        <v>1.02244108319159</v>
+        <v>1.025821559579496</v>
       </c>
       <c r="K25">
-        <v>1.02725811568037</v>
+        <v>1.037695830869708</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005834</v>
+        <v>0.9598754494005829</v>
       </c>
       <c r="M25">
-        <v>0.9841617478414584</v>
+        <v>1.041010112864581</v>
       </c>
       <c r="N25">
-        <v>1.023893066805353</v>
+        <v>1.012276467302857</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.041029143812056</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.037772823475518</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_32/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_32/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.007575265678367</v>
+        <v>1.006876809154797</v>
       </c>
       <c r="D2">
-        <v>1.029641856789488</v>
+        <v>1.028510982512218</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680762</v>
+        <v>0.9527101846680759</v>
       </c>
       <c r="F2">
-        <v>1.033112178738131</v>
+        <v>1.032315618628953</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.051561765021667</v>
+        <v>1.050987536675143</v>
       </c>
       <c r="J2">
-        <v>1.029531738717242</v>
+        <v>1.028853763644066</v>
       </c>
       <c r="K2">
-        <v>1.04070311979323</v>
+        <v>1.039586905307358</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.044128705648548</v>
+        <v>1.043342380776665</v>
       </c>
       <c r="N2">
-        <v>1.013534220926892</v>
+        <v>1.014729925244937</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.043497294889876</v>
+        <v>1.042874973783127</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.039850911793608</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.039070414283092</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.022568668467565</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.01199237917304</v>
+        <v>1.011005488382425</v>
       </c>
       <c r="D3">
-        <v>1.032602150351956</v>
+        <v>1.031181748858921</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9571825583057851</v>
       </c>
       <c r="F3">
-        <v>1.036153218237991</v>
+        <v>1.035134920059514</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.052574042704091</v>
+        <v>1.05185204786243</v>
       </c>
       <c r="J3">
-        <v>1.032161374160804</v>
+        <v>1.031200563574449</v>
       </c>
       <c r="K3">
-        <v>1.042834205777719</v>
+        <v>1.041430612824759</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9683942856474069</v>
       </c>
       <c r="M3">
-        <v>1.046343501053631</v>
+        <v>1.045337145241992</v>
       </c>
       <c r="N3">
-        <v>1.014432033359656</v>
+        <v>1.015361395472336</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.045250147602277</v>
+        <v>1.044453689222317</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.041355111752635</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.040371133887263</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.022958819057286</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.014792442493765</v>
+        <v>1.013625028335389</v>
       </c>
       <c r="D4">
-        <v>1.034480833160786</v>
+        <v>1.032878362952978</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9600238894088614</v>
       </c>
       <c r="F4">
-        <v>1.038087877350727</v>
+        <v>1.036930370644603</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.053201548526361</v>
+        <v>1.052386450146994</v>
       </c>
       <c r="J4">
-        <v>1.033825178545687</v>
+        <v>1.032686511277655</v>
       </c>
       <c r="K4">
-        <v>1.044180180770104</v>
+        <v>1.042595530660286</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9706300002952759</v>
       </c>
       <c r="M4">
-        <v>1.047747360572768</v>
+        <v>1.046602609274696</v>
       </c>
       <c r="N4">
-        <v>1.015000211650624</v>
+        <v>1.015761456858066</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.046361200186031</v>
+        <v>1.045455213018087</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.042307721329552</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.041195802013547</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023202858754907</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.015960804441189</v>
+        <v>1.014718343997268</v>
       </c>
       <c r="D5">
-        <v>1.035266907262874</v>
+        <v>1.033588712390642</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.038897173829845</v>
+        <v>1.037681795944128</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.053461344966198</v>
+        <v>1.052607481462738</v>
       </c>
       <c r="J5">
-        <v>1.034520407178951</v>
+        <v>1.033307620587166</v>
       </c>
       <c r="K5">
-        <v>1.044743127526451</v>
+        <v>1.043083098284529</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.9715596031702913</v>
       </c>
       <c r="M5">
-        <v>1.048334344248986</v>
+        <v>1.047132002588704</v>
       </c>
       <c r="N5">
-        <v>1.015238805081513</v>
+        <v>1.015929481824295</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.0468257545256</v>
+        <v>1.045874189357296</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.042712914735712</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.041548408516021</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023305041855634</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.016161859999654</v>
+        <v>1.014906217775244</v>
       </c>
       <c r="D6">
-        <v>1.035404286568881</v>
+        <v>1.033712970141824</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9614041218017088</v>
       </c>
       <c r="F6">
-        <v>1.039037054025321</v>
+        <v>1.037811621097534</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.053507586511164</v>
+        <v>1.052647004605452</v>
       </c>
       <c r="J6">
-        <v>1.034642155373419</v>
+        <v>1.033416346325355</v>
       </c>
       <c r="K6">
-        <v>1.044843029768311</v>
+        <v>1.043169937136086</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9717150950965047</v>
       </c>
       <c r="M6">
-        <v>1.048436900057089</v>
+        <v>1.047224550942594</v>
       </c>
       <c r="N6">
-        <v>1.015281985345848</v>
+        <v>1.015959807217994</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.046906919862897</v>
+        <v>1.045947434629757</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.042792265667265</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.04161939350654</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023323985418172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.014823339443945</v>
+        <v>1.013665290253026</v>
       </c>
       <c r="D7">
-        <v>1.034507180022105</v>
+        <v>1.032910545740639</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9600397355691359</v>
       </c>
       <c r="F7">
-        <v>1.038110647447836</v>
+        <v>1.036958327805383</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.053213087173101</v>
+        <v>1.052400953678295</v>
       </c>
       <c r="J7">
-        <v>1.033849361015772</v>
+        <v>1.032719815017259</v>
       </c>
       <c r="K7">
-        <v>1.044203367381282</v>
+        <v>1.042624481149358</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9706424616290571</v>
       </c>
       <c r="M7">
-        <v>1.047767025525966</v>
+        <v>1.046627399143284</v>
       </c>
       <c r="N7">
-        <v>1.0150123196176</v>
+        <v>1.015799788561692</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.046376763552611</v>
+        <v>1.045474832403031</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.042344158603768</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.041238318142696</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023212087691312</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.009099472730893</v>
+        <v>1.008337428106725</v>
       </c>
       <c r="D8">
-        <v>1.030669694826855</v>
+        <v>1.029463380076095</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9542328392922299</v>
       </c>
       <c r="F8">
-        <v>1.034161741947383</v>
+        <v>1.033309707532106</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.051919598004734</v>
+        <v>1.05130684774435</v>
       </c>
       <c r="J8">
-        <v>1.030446971567532</v>
+        <v>1.029706512982921</v>
       </c>
       <c r="K8">
-        <v>1.041449653047383</v>
+        <v>1.040258509866699</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.9660706434537711</v>
       </c>
       <c r="M8">
-        <v>1.044898030037122</v>
+        <v>1.044056616893934</v>
       </c>
       <c r="N8">
-        <v>1.013851694843065</v>
+        <v>1.01504445092578</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.044106160789463</v>
+        <v>1.043440241707731</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.040401628911783</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.039570419189086</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.02271719447982</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9985211423865412</v>
+        <v>0.998471610896454</v>
       </c>
       <c r="D9">
-        <v>1.023588527851807</v>
+        <v>1.023089250264133</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9435740419925932</v>
       </c>
       <c r="F9">
-        <v>1.026919453882892</v>
+        <v>1.026610904758085</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.049411437818164</v>
+        <v>1.04915842721491</v>
       </c>
       <c r="J9">
-        <v>1.024126231227343</v>
+        <v>1.024078456205736</v>
       </c>
       <c r="K9">
-        <v>1.036310148898421</v>
+        <v>1.035818507227751</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.957654120883408</v>
       </c>
       <c r="M9">
-        <v>1.039590374096971</v>
+        <v>1.039286503853181</v>
       </c>
       <c r="N9">
-        <v>1.011690083888653</v>
+        <v>1.013538894183502</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.039905515716986</v>
+        <v>1.039665022554154</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.036764486247409</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.036427603527173</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021761909032154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9912106180072695</v>
+        <v>0.9917146910842315</v>
       </c>
       <c r="D10">
-        <v>1.018735101086203</v>
+        <v>1.018763843607398</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547284</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.022034703936644</v>
+        <v>1.022136827328809</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.047627658787045</v>
+        <v>1.047642201863064</v>
       </c>
       <c r="J10">
-        <v>1.019777351892434</v>
+        <v>1.020260933496586</v>
       </c>
       <c r="K10">
-        <v>1.032774130814115</v>
+        <v>1.032802378784125</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.036017194545962</v>
+        <v>1.036117575562888</v>
       </c>
       <c r="N10">
-        <v>1.010223368520407</v>
+        <v>1.012646262409444</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.037129098496859</v>
+        <v>1.037208538742417</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.034281114238611</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.034313515127846</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.021113583391862</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9886303395808218</v>
+        <v>0.9893477021033386</v>
       </c>
       <c r="D11">
-        <v>1.017198043611132</v>
+        <v>1.017417853833337</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.9328454960016258</v>
       </c>
       <c r="F11">
-        <v>1.020936132082612</v>
+        <v>1.021190573055989</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.047130256584511</v>
+        <v>1.047241405717715</v>
       </c>
       <c r="J11">
-        <v>1.018483880189723</v>
+        <v>1.019170443172189</v>
       </c>
       <c r="K11">
-        <v>1.03180275796242</v>
+        <v>1.032018604205529</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>1.035473736736218</v>
+        <v>1.035723632933581</v>
       </c>
       <c r="N11">
-        <v>1.009938751231761</v>
+        <v>1.012679653043992</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.037135897508028</v>
+        <v>1.037333562419834</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.033627207114191</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.03379545872866</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.021008307946699</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9878599348272272</v>
+        <v>0.9886309956904846</v>
       </c>
       <c r="D12">
-        <v>1.016803338750089</v>
+        <v>1.017069948419419</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9316058186411972</v>
       </c>
       <c r="F12">
-        <v>1.020874803505978</v>
+        <v>1.021167485556244</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.047032928032947</v>
+        <v>1.047167711506077</v>
       </c>
       <c r="J12">
-        <v>1.018187121306548</v>
+        <v>1.018924429445097</v>
       </c>
       <c r="K12">
-        <v>1.031615541816471</v>
+        <v>1.031877262834691</v>
       </c>
       <c r="L12">
         <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>1.035612712687061</v>
+        <v>1.035900083722878</v>
       </c>
       <c r="N12">
-        <v>1.009946378603177</v>
+        <v>1.012778485558081</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.037572624018653</v>
+        <v>1.037799853958245</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.033494838790665</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.033695527607849</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.021013831705384</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9884595957204642</v>
+        <v>0.9891437455120644</v>
       </c>
       <c r="D13">
-        <v>1.017288617164356</v>
+        <v>1.017480314011158</v>
       </c>
       <c r="E13">
         <v>0.9318723593367009</v>
       </c>
       <c r="F13">
-        <v>1.021639847080894</v>
+        <v>1.02187361161447</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.047256422537179</v>
+        <v>1.04735334035556</v>
       </c>
       <c r="J13">
-        <v>1.018666085494366</v>
+        <v>1.019320444880806</v>
       </c>
       <c r="K13">
-        <v>1.032048976474668</v>
+        <v>1.032237174068045</v>
       </c>
       <c r="L13">
         <v>0.9483836088964247</v>
       </c>
       <c r="M13">
-        <v>1.036321199030593</v>
+        <v>1.03655074374796</v>
       </c>
       <c r="N13">
-        <v>1.010194415847491</v>
+        <v>1.012907504026211</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.038409727244778</v>
+        <v>1.038591187091742</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.033798795341111</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.033947253349879</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.021113999287393</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9894953270658086</v>
+        <v>0.9900583542719792</v>
       </c>
       <c r="D14">
-        <v>1.018023552993997</v>
+        <v>1.018110658378988</v>
       </c>
       <c r="E14">
         <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.02254559277659</v>
+        <v>1.02269655613946</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.047556169283066</v>
+        <v>1.04760021564985</v>
       </c>
       <c r="J14">
-        <v>1.019348026882261</v>
+        <v>1.019886901134284</v>
       </c>
       <c r="K14">
-        <v>1.032629925978948</v>
+        <v>1.032715461532415</v>
       </c>
       <c r="L14">
         <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>1.037070927445283</v>
+        <v>1.037219201478396</v>
       </c>
       <c r="N14">
-        <v>1.010474055754987</v>
+        <v>1.013012984155521</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.039175789842173</v>
+        <v>1.039292987703474</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.034210973838338</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.034286977237858</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.021227061809162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9900582197244625</v>
+        <v>0.9905600399909558</v>
       </c>
       <c r="D15">
-        <v>1.018407624845482</v>
+        <v>1.01844181461179</v>
       </c>
       <c r="E15">
         <v>0.9332781050717475</v>
       </c>
       <c r="F15">
-        <v>1.022966812239798</v>
+        <v>1.0230757300802</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.047705895466694</v>
+        <v>1.047723185951561</v>
       </c>
       <c r="J15">
-        <v>1.019696886154472</v>
+        <v>1.020177373162582</v>
       </c>
       <c r="K15">
-        <v>1.032920506143131</v>
+        <v>1.032954084499988</v>
       </c>
       <c r="L15">
         <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>1.037398630138192</v>
+        <v>1.037505622853998</v>
       </c>
       <c r="N15">
-        <v>1.010601855603629</v>
+        <v>1.013053596888464</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.039472356177942</v>
+        <v>1.03955692248809</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.034422302567542</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.034462136676128</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.021280365248545</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9930588964422189</v>
+        <v>0.993259106741456</v>
       </c>
       <c r="D16">
-        <v>1.020390398392276</v>
+        <v>1.020160395399306</v>
       </c>
       <c r="E16">
         <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>1.024933828148854</v>
+        <v>1.024832649402547</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.048446423867596</v>
+        <v>1.04833003566598</v>
       </c>
       <c r="J16">
-        <v>1.021472962070382</v>
+        <v>1.021665098834909</v>
       </c>
       <c r="K16">
-        <v>1.034365379027045</v>
+        <v>1.03413930671813</v>
       </c>
       <c r="L16">
         <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>1.038831629449378</v>
+        <v>1.038732159816484</v>
       </c>
       <c r="N16">
-        <v>1.01118488592773</v>
+        <v>1.013230251244739</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.040566271987505</v>
+        <v>1.040487649606713</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.035447046366976</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.035303590958499</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.021534709888265</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9948202100268644</v>
+        <v>0.9948652063301254</v>
       </c>
       <c r="D17">
-        <v>1.02152810651122</v>
+        <v>1.021157873961908</v>
       </c>
       <c r="E17">
         <v>0.938276015685567</v>
       </c>
       <c r="F17">
-        <v>1.025964433431227</v>
+        <v>1.025752252014696</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.048854470234004</v>
+        <v>1.048667050421897</v>
       </c>
       <c r="J17">
-        <v>1.02247890554964</v>
+        <v>1.022522147269253</v>
       </c>
       <c r="K17">
-        <v>1.035168913158481</v>
+        <v>1.034804827466901</v>
       </c>
       <c r="L17">
         <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>1.039532028833399</v>
+        <v>1.039323330433374</v>
       </c>
       <c r="N17">
-        <v>1.01148695958422</v>
+        <v>1.013340405309107</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.040990848149421</v>
+        <v>1.040825873153195</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.036017760986027</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.035776969221521</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.021671076884993</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9956476717221308</v>
+        <v>0.9956393497864374</v>
       </c>
       <c r="D18">
-        <v>1.022006475934553</v>
+        <v>1.021584796364847</v>
       </c>
       <c r="E18">
         <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>1.026222028674144</v>
+        <v>1.025969039563563</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.048997658598396</v>
+        <v>1.048784148950246</v>
       </c>
       <c r="J18">
-        <v>1.022876119166131</v>
+        <v>1.022868115517651</v>
       </c>
       <c r="K18">
-        <v>1.035455861211169</v>
+        <v>1.035041066750945</v>
       </c>
       <c r="L18">
         <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>1.039602982370936</v>
+        <v>1.039354079703142</v>
       </c>
       <c r="N18">
-        <v>1.011551880064849</v>
+        <v>1.013349144876158</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.04080925402397</v>
+        <v>1.040612456731139</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.036209002844982</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.035931222784653</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021702860413234</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9956115593342105</v>
+        <v>0.9956412468547288</v>
       </c>
       <c r="D19">
-        <v>1.021875925058025</v>
+        <v>1.021484355702443</v>
       </c>
       <c r="E19">
         <v>0.939759481468009</v>
       </c>
       <c r="F19">
-        <v>1.025761080325084</v>
+        <v>1.025531517181736</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.048897596489093</v>
+        <v>1.048699320016196</v>
       </c>
       <c r="J19">
-        <v>1.022705784567056</v>
+        <v>1.022734343229428</v>
       </c>
       <c r="K19">
-        <v>1.035264863213264</v>
+        <v>1.034879655068524</v>
       </c>
       <c r="L19">
         <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>1.039087240083007</v>
+        <v>1.038861369378249</v>
       </c>
       <c r="N19">
-        <v>1.011398143901109</v>
+        <v>1.01324489574543</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.040075919921985</v>
+        <v>1.039897274685871</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.036080357830946</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.035824121256462</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.021634592640849</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9931507075745023</v>
+        <v>0.993468891313503</v>
       </c>
       <c r="D20">
-        <v>1.020036005415717</v>
+        <v>1.019898961278873</v>
       </c>
       <c r="E20">
         <v>0.9380716924660139</v>
       </c>
       <c r="F20">
-        <v>1.023335271024994</v>
+        <v>1.023306107845526</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.048117297418508</v>
+        <v>1.048047929067121</v>
       </c>
       <c r="J20">
-        <v>1.020948235318071</v>
+        <v>1.021253918678937</v>
       </c>
       <c r="K20">
-        <v>1.033735463303874</v>
+        <v>1.033600708875766</v>
       </c>
       <c r="L20">
         <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>1.036979843662874</v>
+        <v>1.036951163634499</v>
       </c>
       <c r="N20">
-        <v>1.010630457260829</v>
+        <v>1.012814472950704</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.037880368941348</v>
+        <v>1.037857671666107</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.035002942835895</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.034924181988269</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.021288678103714</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.987505328132615</v>
+        <v>0.9884410119725674</v>
       </c>
       <c r="D21">
-        <v>1.016258871445817</v>
+        <v>1.016659049170622</v>
       </c>
       <c r="E21">
         <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>1.019458095714456</v>
+        <v>1.019857572123993</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.046685104834964</v>
+        <v>1.046887438750701</v>
       </c>
       <c r="J21">
-        <v>1.017534897116656</v>
+        <v>1.018430087397983</v>
       </c>
       <c r="K21">
-        <v>1.030938625531241</v>
+        <v>1.031331537795386</v>
       </c>
       <c r="L21">
         <v>0.9488714019981064</v>
       </c>
       <c r="M21">
-        <v>1.034079973291719</v>
+        <v>1.034472255996732</v>
       </c>
       <c r="N21">
-        <v>1.009449341055412</v>
+        <v>1.012486474329719</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.035544386048159</v>
+        <v>1.035854853593264</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.033028714181724</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.033323371793334</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.020798344369883</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9838976998472163</v>
+        <v>0.9852278103818979</v>
       </c>
       <c r="D22">
-        <v>1.013855821869349</v>
+        <v>1.01459872561078</v>
       </c>
       <c r="E22">
         <v>0.928897295365116</v>
       </c>
       <c r="F22">
-        <v>1.017028766157465</v>
+        <v>1.017702067777884</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.045761423205812</v>
+        <v>1.046136781738621</v>
       </c>
       <c r="J22">
-        <v>1.015361277091291</v>
+        <v>1.01663034641663</v>
       </c>
       <c r="K22">
-        <v>1.029157700397164</v>
+        <v>1.029886422296996</v>
       </c>
       <c r="L22">
         <v>0.9460223821572515</v>
       </c>
       <c r="M22">
-        <v>1.03227026319201</v>
+        <v>1.032930815098672</v>
       </c>
       <c r="N22">
-        <v>1.008701525790272</v>
+        <v>1.012273192570338</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.034112110453487</v>
+        <v>1.034634897492479</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.031755982515557</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.032286785602873</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.020485764766804</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9858039079403959</v>
+        <v>0.9869057607158644</v>
       </c>
       <c r="D23">
-        <v>1.015120370112794</v>
+        <v>1.015668466517097</v>
       </c>
       <c r="E23">
         <v>0.9308081199963315</v>
       </c>
       <c r="F23">
-        <v>1.018310202868114</v>
+        <v>1.018826988340528</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.046247201187614</v>
+        <v>1.04652423334468</v>
       </c>
       <c r="J23">
-        <v>1.016504815673424</v>
+        <v>1.017557638214534</v>
       </c>
       <c r="K23">
-        <v>1.030092108276265</v>
+        <v>1.030630013877397</v>
       </c>
       <c r="L23">
         <v>0.9475391330285319</v>
       </c>
       <c r="M23">
-        <v>1.033222832730368</v>
+        <v>1.033730087454634</v>
       </c>
       <c r="N23">
-        <v>1.009090642706397</v>
+        <v>1.012334589964475</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.034866011731755</v>
+        <v>1.035267472891941</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.032406987963575</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.032801932536597</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.020643160487078</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9931537972133848</v>
+        <v>0.993479607900549</v>
       </c>
       <c r="D24">
-        <v>1.020013816404011</v>
+        <v>1.019882185794819</v>
       </c>
       <c r="E24">
         <v>0.9381640424011828</v>
       </c>
       <c r="F24">
-        <v>1.023274499311822</v>
+        <v>1.023249783681934</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.048097870827546</v>
+        <v>1.048031241624269</v>
       </c>
       <c r="J24">
-        <v>1.02091795715203</v>
+        <v>1.021230986086563</v>
       </c>
       <c r="K24">
-        <v>1.033698352222055</v>
+        <v>1.033568918162165</v>
       </c>
       <c r="L24">
         <v>0.9533716596442545</v>
       </c>
       <c r="M24">
-        <v>1.03690485556788</v>
+        <v>1.036880548941651</v>
       </c>
       <c r="N24">
-        <v>1.010599683054348</v>
+        <v>1.012792259620473</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.037780102956644</v>
+        <v>1.037760865818484</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.034949266385052</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.034871599810723</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.021272725913585</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.001339180295502</v>
+        <v>1.001080474259189</v>
       </c>
       <c r="D25">
-        <v>1.025480598243482</v>
+        <v>1.024780473713746</v>
       </c>
       <c r="E25">
         <v>0.9463835801718012</v>
       </c>
       <c r="F25">
-        <v>1.02884364478398</v>
+        <v>1.028379339110892</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.050098869172385</v>
+        <v>1.04974386432661</v>
       </c>
       <c r="J25">
-        <v>1.025821559579496</v>
+        <v>1.025571530768323</v>
       </c>
       <c r="K25">
-        <v>1.037695830869708</v>
+        <v>1.037005909283902</v>
       </c>
       <c r="L25">
         <v>0.9598754494005829</v>
       </c>
       <c r="M25">
-        <v>1.041010112864581</v>
+        <v>1.040552515624634</v>
       </c>
       <c r="N25">
-        <v>1.012276467302857</v>
+        <v>1.013910515367735</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.041029143812056</v>
+        <v>1.040666986452404</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.037772823475518</v>
+        <v>1.037298543060786</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.022021577086011</v>
       </c>
     </row>
   </sheetData>
